--- a/matlab/statistics/rawdataAnovaLoudnessDiffThreshold.xlsx
+++ b/matlab/statistics/rawdataAnovaLoudnessDiffThreshold.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\thesis\matlab\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31AA6AB-BDB6-4867-9C68-6B188E6FC8A4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06DB08E-1A65-499A-B8C6-B4EDC73B317C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150" xr2:uid="{7AF3A03D-CE9E-409E-9E62-EADF04CEEE14}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -421,7 +427,7 @@
   <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -477,19 +483,19 @@
       <c r="E2" s="1">
         <v>5</v>
       </c>
-      <c r="F2" s="1">
-        <v>16.1074729458918</v>
+      <c r="F2">
+        <v>17.127966933867736</v>
       </c>
       <c r="G2" s="1">
         <f>FLOOR(F2,1)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1">
         <v>13</v>
       </c>
       <c r="I2" s="1">
         <f>G2-H2</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -508,19 +514,19 @@
       <c r="E3" s="1">
         <v>5</v>
       </c>
-      <c r="F3" s="1">
-        <v>15.512796593186399</v>
+      <c r="F3">
+        <v>16.848982965931867</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G66" si="0">FLOOR(F3,1)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1">
         <v>13</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I66" si="1">G3-H3</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -539,19 +545,19 @@
       <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="1">
-        <v>16.268989979959901</v>
+      <c r="F4">
+        <v>17.986943887775549</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1">
         <v>13</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -570,19 +576,19 @@
       <c r="E5" s="1">
         <v>5</v>
       </c>
-      <c r="F5" s="1">
-        <v>15.879880761522999</v>
+      <c r="F5">
+        <v>17.399609218436876</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5" s="1">
         <v>13</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -601,19 +607,19 @@
       <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="F6" s="1">
-        <v>15.109004008016001</v>
+      <c r="F6">
+        <v>16.210256513026053</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1">
         <v>13</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -632,19 +638,19 @@
       <c r="E7" s="1">
         <v>5</v>
       </c>
-      <c r="F7" s="1">
-        <v>16.7535410821643</v>
+      <c r="F7">
+        <v>17.03986673346693</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" s="1">
         <v>13</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -663,19 +669,19 @@
       <c r="E8" s="1">
         <v>5</v>
       </c>
-      <c r="F8" s="1">
-        <v>18.126435871743499</v>
+      <c r="F8">
+        <v>20.196790581162325</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1">
         <v>13</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -694,19 +700,19 @@
       <c r="E9" s="1">
         <v>5</v>
       </c>
-      <c r="F9" s="1">
-        <v>16.408481963927901</v>
+      <c r="F9">
+        <v>17.906185370741483</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1">
         <v>13</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -725,19 +731,19 @@
       <c r="E10" s="1">
         <v>5</v>
       </c>
-      <c r="F10" s="1">
-        <v>16.408481963927901</v>
+      <c r="F10">
+        <v>20.673999999999999</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H10" s="1">
         <v>13</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -756,19 +762,19 @@
       <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="1">
-        <v>15.872539078156301</v>
+      <c r="F11">
+        <v>17.054550100200405</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H11" s="1">
         <v>13</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -787,8 +793,8 @@
       <c r="E12" s="1">
         <v>5</v>
       </c>
-      <c r="F12" s="1">
-        <v>20.651974949899799</v>
+      <c r="F12">
+        <v>20.673999999999999</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
@@ -818,19 +824,19 @@
       <c r="E13" s="1">
         <v>5</v>
       </c>
-      <c r="F13" s="1">
-        <v>15.7844388777555</v>
+      <c r="F13">
+        <v>17.326192384769541</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H13" s="1">
         <v>13</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -849,19 +855,19 @@
       <c r="E14" s="1">
         <v>5</v>
       </c>
-      <c r="F14" s="1">
-        <v>17.274800601202401</v>
+      <c r="F14">
+        <v>19.499330661322649</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H14" s="1">
         <v>13</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -880,19 +886,19 @@
       <c r="E15" s="1">
         <v>5</v>
       </c>
-      <c r="F15" s="1">
-        <v>16.9884749498998</v>
+      <c r="F15">
+        <v>18.97807114228457</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H15" s="1">
         <v>13</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -911,19 +917,19 @@
       <c r="E16" s="1">
         <v>5</v>
       </c>
-      <c r="F16" s="1">
-        <v>16.966449899799599</v>
+      <c r="F16">
+        <v>18.677062124248501</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H16" s="1">
         <v>13</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -942,19 +948,19 @@
       <c r="E17" s="1">
         <v>5</v>
       </c>
-      <c r="F17" s="1">
-        <v>18.309977955911801</v>
+      <c r="F17">
+        <v>20.380332665330663</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H17" s="1">
         <v>13</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -973,19 +979,19 @@
       <c r="E18" s="1">
         <v>5</v>
       </c>
-      <c r="F18" s="1">
-        <v>15.696338677354699</v>
+      <c r="F18">
+        <v>17.428975951903809</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H18" s="1">
         <v>13</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1004,19 +1010,19 @@
       <c r="E19" s="1">
         <v>5</v>
       </c>
-      <c r="F19" s="1">
-        <v>17.942893787575201</v>
+      <c r="F19">
+        <v>20.101348697394787</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H19" s="1">
         <v>13</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1035,8 +1041,8 @@
       <c r="E20" s="1">
         <v>5</v>
       </c>
-      <c r="F20" s="1">
-        <v>16.349748496994</v>
+      <c r="F20">
+        <v>16.8563246492986</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="0"/>
@@ -1066,19 +1072,19 @@
       <c r="E21" s="1">
         <v>5</v>
       </c>
-      <c r="F21" s="1">
-        <v>16.349748496994</v>
+      <c r="F21">
+        <v>20.673999999999999</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H21" s="1">
         <v>13</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1097,19 +1103,19 @@
       <c r="E22" s="1">
         <v>50</v>
       </c>
-      <c r="F22" s="1">
-        <v>43.7989509018036</v>
+      <c r="F22">
+        <v>45.949304609218423</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H22" s="1">
         <v>40</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1128,19 +1134,19 @@
       <c r="E23" s="1">
         <v>50</v>
       </c>
-      <c r="F23" s="1">
-        <v>43.562648296593203</v>
+      <c r="F23">
+        <v>46.374649298597198</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H23" s="1">
         <v>40</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1159,19 +1165,19 @@
       <c r="E24" s="1">
         <v>50</v>
       </c>
-      <c r="F24" s="1">
-        <v>43.9879929859719</v>
+      <c r="F24">
+        <v>46.043825651302598</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H24" s="1">
         <v>40</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1190,19 +1196,19 @@
       <c r="E25" s="1">
         <v>50</v>
       </c>
-      <c r="F25" s="1">
-        <v>44.366077154308599</v>
+      <c r="F25">
+        <v>46.941775551102189</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H25" s="1">
         <v>40</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1221,19 +1227,19 @@
       <c r="E26" s="1">
         <v>50</v>
       </c>
-      <c r="F26" s="1">
-        <v>43.090043086172301</v>
+      <c r="F26">
+        <v>44.153404809619239</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H26" s="1">
         <v>40</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1252,19 +1258,19 @@
       <c r="E27" s="1">
         <v>50</v>
       </c>
-      <c r="F27" s="1">
-        <v>43.775320641282597</v>
+      <c r="F27">
+        <v>46.303758517034069</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H27" s="1">
         <v>40</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1283,19 +1289,19 @@
       <c r="E28" s="1">
         <v>50</v>
       </c>
-      <c r="F28" s="1">
-        <v>43.775320641282597</v>
+      <c r="F28">
+        <v>40.585235470941882</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H28" s="1">
         <v>40</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1314,19 +1320,19 @@
       <c r="E29" s="1">
         <v>50</v>
       </c>
-      <c r="F29" s="1">
-        <v>46.232867735470997</v>
+      <c r="F29">
+        <v>50.037339679358723</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H29" s="1">
         <v>40</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -1345,19 +1351,19 @@
       <c r="E30" s="1">
         <v>50</v>
       </c>
-      <c r="F30" s="1">
-        <v>51.431525050100198</v>
+      <c r="F30">
+        <v>60.245612224448898</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="H30" s="1">
         <v>40</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1376,19 +1382,19 @@
       <c r="E31" s="1">
         <v>50</v>
       </c>
-      <c r="F31" s="1">
-        <v>44.0588837675351</v>
+      <c r="F31">
+        <v>46.870884769539074</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H31" s="1">
         <v>40</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -1407,19 +1413,19 @@
       <c r="E32" s="1">
         <v>50</v>
       </c>
-      <c r="F32" s="1">
-        <v>43.255454909819598</v>
+      <c r="F32">
+        <v>45.594850701402819</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H32" s="1">
         <v>40</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -1438,19 +1444,19 @@
       <c r="E33" s="1">
         <v>50</v>
       </c>
-      <c r="F33" s="1">
-        <v>42.735589178356697</v>
+      <c r="F33">
+        <v>45.122245490981946</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H33" s="1">
         <v>40</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -1469,19 +1475,19 @@
       <c r="E34" s="1">
         <v>50</v>
       </c>
-      <c r="F34" s="1">
-        <v>41.577706412825698</v>
+      <c r="F34">
+        <v>42.286614228456912</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H34" s="1">
         <v>40</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -1500,19 +1506,19 @@
       <c r="E35" s="1">
         <v>50</v>
       </c>
-      <c r="F35" s="1">
-        <v>43.775320641282597</v>
+      <c r="F35">
+        <v>47.01266633266534</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H35" s="1">
         <v>40</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -1531,19 +1537,19 @@
       <c r="E36" s="1">
         <v>50</v>
       </c>
-      <c r="F36" s="1">
-        <v>43.208194388777599</v>
+      <c r="F36">
+        <v>45.453069138276568</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H36" s="1">
         <v>40</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -1562,19 +1568,19 @@
       <c r="E37" s="1">
         <v>50</v>
       </c>
-      <c r="F37" s="1">
-        <v>43.0191523046092</v>
+      <c r="F37">
+        <v>45.429438877755523</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H37" s="1">
         <v>40</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -1593,19 +1599,19 @@
       <c r="E38" s="1">
         <v>50</v>
       </c>
-      <c r="F38" s="1">
-        <v>45.098615230460901</v>
+      <c r="F38">
+        <v>48.099658316633274</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H38" s="1">
         <v>40</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -1624,19 +1630,19 @@
       <c r="E39" s="1">
         <v>50</v>
       </c>
-      <c r="F39" s="1">
-        <v>49.682885771543098</v>
+      <c r="F39">
+        <v>55.874014028056116</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H39" s="1">
         <v>40</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -1655,19 +1661,19 @@
       <c r="E40" s="1">
         <v>50</v>
       </c>
-      <c r="F40" s="1">
-        <v>49.682885771543098</v>
+      <c r="F40">
+        <v>40.585235470941882</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H40" s="1">
         <v>40</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -1686,19 +1692,19 @@
       <c r="E41" s="1">
         <v>50</v>
       </c>
-      <c r="F41" s="1">
-        <v>49.682885771543098</v>
+      <c r="F41">
+        <v>63.671999999999997</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="H41" s="1">
         <v>40</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -1717,19 +1723,19 @@
       <c r="E42" s="1">
         <v>500</v>
       </c>
-      <c r="F42" s="1">
-        <v>52.313152304609197</v>
+      <c r="F42">
+        <v>54.839284569138279</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H42" s="1">
         <v>48</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -1748,19 +1754,19 @@
       <c r="E43" s="1">
         <v>500</v>
       </c>
-      <c r="F43" s="1">
-        <v>50.460655310621199</v>
+      <c r="F43">
+        <v>53.941104208416839</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H43" s="1">
         <v>48</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -1779,19 +1785,19 @@
       <c r="E44" s="1">
         <v>500</v>
       </c>
-      <c r="F44" s="1">
-        <v>54.979625250501002</v>
+      <c r="F44">
+        <v>62.361545090180357</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H44" s="1">
         <v>48</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -1810,19 +1816,19 @@
       <c r="E45" s="1">
         <v>500</v>
       </c>
-      <c r="F45" s="1">
-        <v>51.134290581162297</v>
+      <c r="F45">
+        <v>52.537697394789589</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H45" s="1">
         <v>48</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -1841,19 +1847,19 @@
       <c r="E46" s="1">
         <v>500</v>
       </c>
-      <c r="F46" s="1">
-        <v>50.544859719438897</v>
+      <c r="F46">
+        <v>51.807925851703402</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H46" s="1">
         <v>48</v>
       </c>
       <c r="I46" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -1872,19 +1878,19 @@
       <c r="E47" s="1">
         <v>500</v>
       </c>
-      <c r="F47" s="1">
-        <v>49.955428857715397</v>
+      <c r="F47">
+        <v>51.864062124248491</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H47" s="1">
         <v>48</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -1903,19 +1909,19 @@
       <c r="E48" s="1">
         <v>500</v>
       </c>
-      <c r="F48" s="1">
-        <v>48.692362725450899</v>
+      <c r="F48">
+        <v>49.001112224448896</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H48" s="1">
         <v>48</v>
       </c>
       <c r="I48" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -1934,19 +1940,19 @@
       <c r="E49" s="1">
         <v>500</v>
       </c>
-      <c r="F49" s="1">
-        <v>58.656551102204403</v>
+      <c r="F49">
+        <v>66.291084168336724</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H49" s="1">
         <v>48</v>
       </c>
       <c r="I49" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -1965,19 +1971,19 @@
       <c r="E50" s="1">
         <v>500</v>
       </c>
-      <c r="F50" s="1">
-        <v>52.116675350701399</v>
+      <c r="F50">
+        <v>55.09189779559118</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H50" s="1">
         <v>48</v>
       </c>
       <c r="I50" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -1996,19 +2002,19 @@
       <c r="E51" s="1">
         <v>500</v>
       </c>
-      <c r="F51" s="1">
-        <v>52.4815611222445</v>
+      <c r="F51">
+        <v>55.428715430861715</v>
       </c>
       <c r="G51" s="1">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H51" s="1">
         <v>48</v>
       </c>
       <c r="I51" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -2027,19 +2033,19 @@
       <c r="E52" s="1">
         <v>500</v>
       </c>
-      <c r="F52" s="1">
-        <v>53.014855711422904</v>
+      <c r="F52">
+        <v>55.933941883767531</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H52" s="1">
         <v>48</v>
       </c>
       <c r="I52" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -2058,19 +2064,19 @@
       <c r="E53" s="1">
         <v>500</v>
       </c>
-      <c r="F53" s="1">
-        <v>52.341220440881798</v>
+      <c r="F53">
+        <v>54.839284569138279</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H53" s="1">
         <v>48</v>
       </c>
       <c r="I53" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -2089,19 +2095,19 @@
       <c r="E54" s="1">
         <v>500</v>
       </c>
-      <c r="F54" s="1">
-        <v>51.864062124248498</v>
+      <c r="F54">
+        <v>53.127128256513018</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H54" s="1">
         <v>48</v>
       </c>
       <c r="I54" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -2120,19 +2126,19 @@
       <c r="E55" s="1">
         <v>500</v>
       </c>
-      <c r="F55" s="1">
-        <v>50.769404809619203</v>
+      <c r="F55">
+        <v>53.070991983967929</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H55" s="1">
         <v>48</v>
       </c>
       <c r="I55" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -2151,19 +2157,19 @@
       <c r="E56" s="1">
         <v>500</v>
       </c>
-      <c r="F56" s="1">
-        <v>53.688490981963902</v>
+      <c r="F56">
+        <v>55.737464929859712</v>
       </c>
       <c r="G56" s="1">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H56" s="1">
         <v>48</v>
       </c>
       <c r="I56" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -2182,19 +2188,19 @@
       <c r="E57" s="1">
         <v>500</v>
       </c>
-      <c r="F57" s="1">
-        <v>53.014855711422797</v>
+      <c r="F57">
+        <v>56.775985971943889</v>
       </c>
       <c r="G57" s="1">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H57" s="1">
         <v>48</v>
       </c>
       <c r="I57" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -2213,19 +2219,19 @@
       <c r="E58" s="1">
         <v>500</v>
       </c>
-      <c r="F58" s="1">
-        <v>53.7726953907816</v>
+      <c r="F58">
+        <v>57.281212424849699</v>
       </c>
       <c r="G58" s="1">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H58" s="1">
         <v>48</v>
       </c>
       <c r="I58" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -2244,19 +2250,19 @@
       <c r="E59" s="1">
         <v>500</v>
       </c>
-      <c r="F59" s="1">
-        <v>51.639517034068099</v>
+      <c r="F59">
+        <v>54.755080160320645</v>
       </c>
       <c r="G59" s="1">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H59" s="1">
         <v>48</v>
       </c>
       <c r="I59" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -2275,19 +2281,19 @@
       <c r="E60" s="1">
         <v>500</v>
       </c>
-      <c r="F60" s="1">
-        <v>48.748498997996002</v>
+      <c r="F60">
+        <v>49.113384769539081</v>
       </c>
       <c r="G60" s="1">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H60" s="1">
         <v>48</v>
       </c>
       <c r="I60" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -2306,19 +2312,19 @@
       <c r="E61" s="1">
         <v>500</v>
       </c>
-      <c r="F61" s="1">
-        <v>57.758370741482999</v>
+      <c r="F61">
+        <v>69.210170340681344</v>
       </c>
       <c r="G61" s="1">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H61" s="1">
         <v>48</v>
       </c>
       <c r="I61" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -2337,19 +2343,19 @@
       <c r="E62" s="1">
         <v>5</v>
       </c>
-      <c r="F62" s="1">
-        <v>22.592955911823601</v>
+      <c r="F62">
+        <v>23.750929859719438</v>
       </c>
       <c r="G62" s="1">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H62" s="1">
         <v>19</v>
       </c>
       <c r="I62" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -2368,19 +2374,19 @@
       <c r="E63" s="1">
         <v>5</v>
       </c>
-      <c r="F63" s="1">
-        <v>22.686456913827701</v>
+      <c r="F63">
+        <v>23.060460921843685</v>
       </c>
       <c r="G63" s="1">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H63" s="1">
         <v>19</v>
       </c>
       <c r="I63" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -2399,8 +2405,8 @@
       <c r="E64" s="1">
         <v>5</v>
       </c>
-      <c r="F64" s="1">
-        <v>22.571378757514999</v>
+      <c r="F64">
+        <v>22.974152304609216</v>
       </c>
       <c r="G64" s="1">
         <f t="shared" si="0"/>
@@ -2430,8 +2436,8 @@
       <c r="E65" s="1">
         <v>5</v>
       </c>
-      <c r="F65" s="1">
-        <v>22.2692985971944</v>
+      <c r="F65">
+        <v>22.686456913827662</v>
       </c>
       <c r="G65" s="1">
         <f t="shared" si="0"/>
@@ -2461,19 +2467,19 @@
       <c r="E66" s="1">
         <v>5</v>
       </c>
-      <c r="F66" s="1">
-        <v>22.2692985971944</v>
+      <c r="F66">
+        <v>23.492004008016025</v>
       </c>
       <c r="G66" s="1">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H66" s="1">
         <v>19</v>
       </c>
       <c r="I66" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -2492,8 +2498,8 @@
       <c r="E67" s="1">
         <v>5</v>
       </c>
-      <c r="F67" s="1">
-        <v>22.197374749499001</v>
+      <c r="F67">
+        <v>22.348414829659319</v>
       </c>
       <c r="G67" s="1">
         <f t="shared" ref="G67:G121" si="2">FLOOR(F67,1)</f>
@@ -2523,19 +2529,19 @@
       <c r="E68" s="1">
         <v>5</v>
       </c>
-      <c r="F68" s="1">
-        <v>21.693907815631299</v>
+      <c r="F68">
+        <v>22.91661322645291</v>
       </c>
       <c r="G68" s="1">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H68" s="1">
         <v>19</v>
       </c>
       <c r="I68" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -2554,19 +2560,19 @@
       <c r="E69" s="1">
         <v>5</v>
       </c>
-      <c r="F69" s="1">
-        <v>22.060719438877801</v>
+      <c r="F69">
+        <v>23.312194388777552</v>
       </c>
       <c r="G69" s="1">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H69" s="1">
         <v>19</v>
       </c>
       <c r="I69" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -2585,19 +2591,19 @@
       <c r="E70" s="1">
         <v>5</v>
       </c>
-      <c r="F70" s="1">
-        <v>25.628142284569101</v>
+      <c r="F70">
+        <v>26.376150300601203</v>
       </c>
       <c r="G70" s="1">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H70" s="1">
         <v>19</v>
       </c>
       <c r="I70" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -2616,19 +2622,19 @@
       <c r="E71" s="1">
         <v>5</v>
       </c>
-      <c r="F71" s="1">
-        <v>22.571378757514999</v>
+      <c r="F71">
+        <v>24.635593186372745</v>
       </c>
       <c r="G71" s="1">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H71" s="1">
         <v>19</v>
       </c>
       <c r="I71" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
@@ -2647,19 +2653,19 @@
       <c r="E72" s="1">
         <v>5</v>
       </c>
-      <c r="F72" s="1">
-        <v>22.7511883767535</v>
+      <c r="F72">
+        <v>24.42701402805611</v>
       </c>
       <c r="G72" s="1">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H72" s="1">
         <v>19</v>
       </c>
       <c r="I72" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -2678,19 +2684,19 @@
       <c r="E73" s="1">
         <v>5</v>
       </c>
-      <c r="F73" s="1">
-        <v>22.190182364729498</v>
+      <c r="F73">
+        <v>23.750929859719434</v>
       </c>
       <c r="G73" s="1">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H73" s="1">
         <v>19</v>
       </c>
       <c r="I73" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -2709,19 +2715,19 @@
       <c r="E74" s="1">
         <v>5</v>
       </c>
-      <c r="F74" s="1">
-        <v>22.190182364729498</v>
+      <c r="F74">
+        <v>23.470426853707416</v>
       </c>
       <c r="G74" s="1">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H74" s="1">
         <v>19</v>
       </c>
       <c r="I74" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -2740,19 +2746,19 @@
       <c r="E75" s="1">
         <v>5</v>
       </c>
-      <c r="F75" s="1">
-        <v>23.305002004007999</v>
+      <c r="F75">
+        <v>24.779440881763527</v>
       </c>
       <c r="G75" s="1">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H75" s="1">
         <v>19</v>
       </c>
       <c r="I75" s="1">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
@@ -2771,19 +2777,19 @@
       <c r="E76" s="1">
         <v>5</v>
       </c>
-      <c r="F76" s="1">
-        <v>21.600406813627298</v>
+      <c r="F76">
+        <v>22.859074148296589</v>
       </c>
       <c r="G76" s="1">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H76" s="1">
         <v>19</v>
       </c>
       <c r="I76" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -2802,19 +2808,19 @@
       <c r="E77" s="1">
         <v>5</v>
       </c>
-      <c r="F77" s="1">
-        <v>21.600406813627298</v>
+      <c r="F77">
+        <v>26.707000000000001</v>
       </c>
       <c r="G77" s="1">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H77" s="1">
         <v>19</v>
       </c>
       <c r="I77" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -2833,19 +2839,19 @@
       <c r="E78" s="1">
         <v>5</v>
       </c>
-      <c r="F78" s="1">
-        <v>21.600406813627298</v>
+      <c r="F78">
+        <v>26.707000000000001</v>
       </c>
       <c r="G78" s="1">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H78" s="1">
         <v>19</v>
       </c>
       <c r="I78" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -2864,19 +2870,19 @@
       <c r="E79" s="1">
         <v>5</v>
       </c>
-      <c r="F79" s="1">
-        <v>25.333254509018001</v>
+      <c r="F79">
+        <v>26.707000000000001</v>
       </c>
       <c r="G79" s="1">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H79" s="1">
         <v>19</v>
       </c>
       <c r="I79" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -2895,19 +2901,19 @@
       <c r="E80" s="1">
         <v>5</v>
       </c>
-      <c r="F80" s="1">
-        <v>22.672072144288599</v>
+      <c r="F80">
+        <v>23.664621242484973</v>
       </c>
       <c r="G80" s="1">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H80" s="1">
         <v>19</v>
       </c>
       <c r="I80" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
@@ -2926,19 +2932,19 @@
       <c r="E81" s="1">
         <v>5</v>
       </c>
-      <c r="F81" s="1">
-        <v>21.600406813627298</v>
+      <c r="F81">
+        <v>26.707000000000001</v>
       </c>
       <c r="G81" s="1">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H81" s="1">
         <v>19</v>
       </c>
       <c r="I81" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
@@ -2957,19 +2963,19 @@
       <c r="E82" s="1">
         <v>50</v>
       </c>
-      <c r="F82" s="1">
-        <v>49.742509018036102</v>
+      <c r="F82">
+        <v>50.85019438877756</v>
       </c>
       <c r="G82" s="1">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H82" s="1">
         <v>45</v>
       </c>
       <c r="I82" s="1">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
@@ -2988,19 +2994,19 @@
       <c r="E83" s="1">
         <v>50</v>
       </c>
-      <c r="F83" s="1">
-        <v>49.422511022044098</v>
+      <c r="F83">
+        <v>51.2440380761523</v>
       </c>
       <c r="G83" s="1">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H83" s="1">
         <v>45</v>
       </c>
       <c r="I83" s="1">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
@@ -3019,19 +3025,19 @@
       <c r="E84" s="1">
         <v>50</v>
       </c>
-      <c r="F84" s="1">
-        <v>50.087122244489002</v>
+      <c r="F84">
+        <v>53.016334669338676</v>
       </c>
       <c r="G84" s="1">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H84" s="1">
         <v>45</v>
       </c>
       <c r="I84" s="1">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
@@ -3050,19 +3056,19 @@
       <c r="E85" s="1">
         <v>50</v>
       </c>
-      <c r="F85" s="1">
-        <v>45.927148296593202</v>
+      <c r="F85">
+        <v>46.493298597194382</v>
       </c>
       <c r="G85" s="1">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" s="1">
         <v>45</v>
       </c>
       <c r="I85" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -3081,19 +3087,19 @@
       <c r="E86" s="1">
         <v>50</v>
       </c>
-      <c r="F86" s="1">
-        <v>49.988661322645299</v>
+      <c r="F86">
+        <v>52.819412825651298</v>
       </c>
       <c r="G86" s="1">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H86" s="1">
         <v>45</v>
       </c>
       <c r="I86" s="1">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
@@ -3112,19 +3118,19 @@
       <c r="E87" s="1">
         <v>50</v>
       </c>
-      <c r="F87" s="1">
-        <v>47.724060120240502</v>
+      <c r="F87">
+        <v>49.570202404809613</v>
       </c>
       <c r="G87" s="1">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H87" s="1">
         <v>45</v>
       </c>
       <c r="I87" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
@@ -3143,19 +3149,19 @@
       <c r="E88" s="1">
         <v>50</v>
       </c>
-      <c r="F88" s="1">
-        <v>46.6656052104208</v>
+      <c r="F88">
+        <v>47.600983967935868</v>
       </c>
       <c r="G88" s="1">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" s="1">
         <v>45</v>
       </c>
       <c r="I88" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
@@ -3174,19 +3180,19 @@
       <c r="E89" s="1">
         <v>50</v>
       </c>
-      <c r="F89" s="1">
-        <v>49.939430861723402</v>
+      <c r="F89">
+        <v>52.819412825651298</v>
       </c>
       <c r="G89" s="1">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H89" s="1">
         <v>45</v>
       </c>
       <c r="I89" s="1">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
@@ -3205,19 +3211,19 @@
       <c r="E90" s="1">
         <v>50</v>
       </c>
-      <c r="F90" s="1">
-        <v>59.6378316633267</v>
+      <c r="F90">
+        <v>60.720901803607205</v>
       </c>
       <c r="G90" s="1">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H90" s="1">
         <v>45</v>
       </c>
       <c r="I90" s="1">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
@@ -3236,19 +3242,19 @@
       <c r="E91" s="1">
         <v>50</v>
       </c>
-      <c r="F91" s="1">
-        <v>48.585593186372698</v>
+      <c r="F91">
+        <v>58.410916270040083</v>
       </c>
       <c r="G91" s="1">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H91" s="1">
         <v>45</v>
       </c>
       <c r="I91" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
@@ -3267,19 +3273,19 @@
       <c r="E92" s="1">
         <v>50</v>
       </c>
-      <c r="F92" s="1">
-        <v>53.951713426853701</v>
+      <c r="F92">
+        <v>58.677837675350709</v>
       </c>
       <c r="G92" s="1">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H92" s="1">
         <v>45</v>
       </c>
       <c r="I92" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
@@ -3298,19 +3304,19 @@
       <c r="E93" s="1">
         <v>50</v>
       </c>
-      <c r="F93" s="1">
-        <v>48.142519038076202</v>
+      <c r="F93">
+        <v>49.693278557114219</v>
       </c>
       <c r="G93" s="1">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H93" s="1">
         <v>45</v>
       </c>
       <c r="I93" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
@@ -3329,19 +3335,19 @@
       <c r="E94" s="1">
         <v>50</v>
       </c>
-      <c r="F94" s="1">
-        <v>50.357889779559102</v>
+      <c r="F94">
+        <v>54.985553106212421</v>
       </c>
       <c r="G94" s="1">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H94" s="1">
         <v>45</v>
       </c>
       <c r="I94" s="1">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
@@ -3360,19 +3366,19 @@
       <c r="E95" s="1">
         <v>50</v>
       </c>
-      <c r="F95" s="1">
-        <v>52.647106212424802</v>
+      <c r="F95">
+        <v>57.077847695390766</v>
       </c>
       <c r="G95" s="1">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H95" s="1">
         <v>45</v>
       </c>
       <c r="I95" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
@@ -3391,19 +3397,19 @@
       <c r="E96" s="1">
         <v>50</v>
       </c>
-      <c r="F96" s="1">
-        <v>46.887142284569101</v>
+      <c r="F96">
+        <v>48.21636472945891</v>
       </c>
       <c r="G96" s="1">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H96" s="1">
         <v>45</v>
       </c>
       <c r="I96" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
@@ -3422,19 +3428,19 @@
       <c r="E97" s="1">
         <v>50</v>
       </c>
-      <c r="F97" s="1">
-        <v>56.216314629258498</v>
+      <c r="F97">
+        <v>62.591659318637269</v>
       </c>
       <c r="G97" s="1">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H97" s="1">
         <v>45</v>
       </c>
       <c r="I97" s="1">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
@@ -3453,19 +3459,19 @@
       <c r="E98" s="1">
         <v>50</v>
       </c>
-      <c r="F98" s="1">
-        <v>53.065565130260502</v>
+      <c r="F98">
+        <v>59.440909819639288</v>
       </c>
       <c r="G98" s="1">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H98" s="1">
         <v>45</v>
       </c>
       <c r="I98" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
@@ -3484,19 +3490,19 @@
       <c r="E99" s="1">
         <v>50</v>
       </c>
-      <c r="F99" s="1">
-        <v>54.690170340681398</v>
+      <c r="F99">
+        <v>61.188591182364725</v>
       </c>
       <c r="G99" s="1">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H99" s="1">
         <v>45</v>
       </c>
       <c r="I99" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
@@ -3515,19 +3521,19 @@
       <c r="E100" s="1">
         <v>50</v>
       </c>
-      <c r="F100" s="1">
-        <v>51.342498997996003</v>
+      <c r="F100">
+        <v>54.985553106212436</v>
       </c>
       <c r="G100" s="1">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H100" s="1">
         <v>45</v>
       </c>
       <c r="I100" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
@@ -3546,19 +3552,19 @@
       <c r="E101" s="1">
         <v>50</v>
       </c>
-      <c r="F101" s="1">
-        <v>51.342498997996003</v>
+      <c r="F101">
+        <v>69.606999999999999</v>
       </c>
       <c r="G101" s="1">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="H101" s="1">
         <v>45</v>
       </c>
       <c r="I101" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
@@ -3577,19 +3583,19 @@
       <c r="E102" s="1">
         <v>500</v>
       </c>
-      <c r="F102" s="1">
-        <v>54.650919839679403</v>
+      <c r="F102">
+        <v>56.072450901803606</v>
       </c>
       <c r="G102" s="1">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H102" s="1">
         <v>52</v>
       </c>
       <c r="I102" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
@@ -3608,8 +3614,8 @@
       <c r="E103" s="1">
         <v>500</v>
       </c>
-      <c r="F103" s="1">
-        <v>53.0714408817635</v>
+      <c r="F103">
+        <v>53.413661322645297</v>
       </c>
       <c r="G103" s="1">
         <f t="shared" si="2"/>
@@ -3639,8 +3645,8 @@
       <c r="E104" s="1">
         <v>500</v>
       </c>
-      <c r="F104" s="1">
-        <v>53.255713426853703</v>
+      <c r="F104">
+        <v>53.808531062124253</v>
       </c>
       <c r="G104" s="1">
         <f t="shared" si="2"/>
@@ -3670,19 +3676,19 @@
       <c r="E105" s="1">
         <v>500</v>
       </c>
-      <c r="F105" s="1">
-        <v>53.492635270541101</v>
+      <c r="F105">
+        <v>54.045452905811629</v>
       </c>
       <c r="G105" s="1">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H105" s="1">
         <v>52</v>
       </c>
       <c r="I105" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
@@ -3701,19 +3707,19 @@
       <c r="E106" s="1">
         <v>500</v>
       </c>
-      <c r="F106" s="1">
-        <v>53.282038076152297</v>
+      <c r="F106">
+        <v>54.019128256513028</v>
       </c>
       <c r="G106" s="1">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H106" s="1">
         <v>52</v>
       </c>
       <c r="I106" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
@@ -3732,8 +3738,8 @@
       <c r="E107" s="1">
         <v>500</v>
       </c>
-      <c r="F107" s="1">
-        <v>52.702895791583202</v>
+      <c r="F107">
+        <v>52.887168336673348</v>
       </c>
       <c r="G107" s="1">
         <f t="shared" si="2"/>
@@ -3763,8 +3769,8 @@
       <c r="E108" s="1">
         <v>500</v>
       </c>
-      <c r="F108" s="1">
-        <v>53.361012024048101</v>
+      <c r="F108">
+        <v>53.887505010020035</v>
       </c>
       <c r="G108" s="1">
         <f t="shared" si="2"/>
@@ -3794,8 +3800,8 @@
       <c r="E109" s="1">
         <v>500</v>
       </c>
-      <c r="F109" s="1">
-        <v>53.0714408817635</v>
+      <c r="F109">
+        <v>53.466310621242485</v>
       </c>
       <c r="G109" s="1">
         <f t="shared" si="2"/>
@@ -3825,8 +3831,8 @@
       <c r="E110" s="1">
         <v>500</v>
       </c>
-      <c r="F110" s="1">
-        <v>53.097765531062102</v>
+      <c r="F110">
+        <v>53.466310621242485</v>
       </c>
       <c r="G110" s="1">
         <f t="shared" si="2"/>
@@ -3856,19 +3862,19 @@
       <c r="E111" s="1">
         <v>500</v>
       </c>
-      <c r="F111" s="1">
-        <v>57.388683366733503</v>
+      <c r="F111">
+        <v>60.942511022044094</v>
       </c>
       <c r="G111" s="1">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H111" s="1">
         <v>52</v>
       </c>
       <c r="I111" s="1">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
@@ -3887,19 +3893,19 @@
       <c r="E112" s="1">
         <v>500</v>
       </c>
-      <c r="F112" s="1">
-        <v>55.151088176352701</v>
+      <c r="F112">
+        <v>57.309709418837684</v>
       </c>
       <c r="G112" s="1">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H112" s="1">
         <v>52</v>
       </c>
       <c r="I112" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
@@ -3918,19 +3924,19 @@
       <c r="E113" s="1">
         <v>500</v>
       </c>
-      <c r="F113" s="1">
-        <v>56.177749498997997</v>
+      <c r="F113">
+        <v>58.125773547094191</v>
       </c>
       <c r="G113" s="1">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H113" s="1">
         <v>52</v>
       </c>
       <c r="I113" s="1">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
@@ -3949,19 +3955,19 @@
       <c r="E114" s="1">
         <v>500</v>
       </c>
-      <c r="F114" s="1">
-        <v>53.992803607214398</v>
+      <c r="F114">
+        <v>54.887841683366737</v>
       </c>
       <c r="G114" s="1">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H114" s="1">
         <v>52</v>
       </c>
       <c r="I114" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
@@ -3980,19 +3986,19 @@
       <c r="E115" s="1">
         <v>500</v>
       </c>
-      <c r="F115" s="1">
-        <v>53.782206412825701</v>
+      <c r="F115">
+        <v>55.01946492985973</v>
       </c>
       <c r="G115" s="1">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H115" s="1">
         <v>52</v>
       </c>
       <c r="I115" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
@@ -4011,19 +4017,19 @@
       <c r="E116" s="1">
         <v>500</v>
       </c>
-      <c r="F116" s="1">
-        <v>53.729557114228498</v>
+      <c r="F116">
+        <v>54.54562124248497</v>
       </c>
       <c r="G116" s="1">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H116" s="1">
         <v>52</v>
       </c>
       <c r="I116" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
@@ -4042,19 +4048,19 @@
       <c r="E117" s="1">
         <v>500</v>
       </c>
-      <c r="F117" s="1">
-        <v>53.571609218436897</v>
+      <c r="F117">
+        <v>54.387673346693383</v>
       </c>
       <c r="G117" s="1">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H117" s="1">
         <v>52</v>
       </c>
       <c r="I117" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
@@ -4073,19 +4079,19 @@
       <c r="E118" s="1">
         <v>500</v>
       </c>
-      <c r="F118" s="1">
-        <v>57.151761523046098</v>
+      <c r="F118">
+        <v>60.889861723446899</v>
       </c>
       <c r="G118" s="1">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H118" s="1">
         <v>52</v>
       </c>
       <c r="I118" s="1">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
@@ -4104,19 +4110,19 @@
       <c r="E119" s="1">
         <v>500</v>
       </c>
-      <c r="F119" s="1">
-        <v>56.046126252504997</v>
+      <c r="F119">
+        <v>58.546967935871749</v>
       </c>
       <c r="G119" s="1">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H119" s="1">
         <v>52</v>
       </c>
       <c r="I119" s="1">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
@@ -4135,19 +4141,19 @@
       <c r="E120" s="1">
         <v>500</v>
       </c>
-      <c r="F120" s="1">
-        <v>54.8615170340681</v>
+      <c r="F120">
+        <v>56.519969939879765</v>
       </c>
       <c r="G120" s="1">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H120" s="1">
         <v>52</v>
       </c>
       <c r="I120" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
@@ -4166,19 +4172,19 @@
       <c r="E121" s="1">
         <v>500</v>
       </c>
-      <c r="F121" s="1">
-        <v>71.483410110543701</v>
+      <c r="F121">
+        <v>67.356785003970217</v>
       </c>
       <c r="G121" s="1">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H121" s="1">
         <v>52</v>
       </c>
       <c r="I121" s="1">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/statistics/rawdataAnovaLoudnessDiffThreshold.xlsx
+++ b/matlab/statistics/rawdataAnovaLoudnessDiffThreshold.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\thesis\matlab\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06DB08E-1A65-499A-B8C6-B4EDC73B317C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2CABA4-7858-41D9-BFD6-7F096AD9B3D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150" xr2:uid="{7AF3A03D-CE9E-409E-9E62-EADF04CEEE14}"/>
   </bookViews>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D8E72B-909E-4713-9154-9D34E1C8C58B}">
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -484,18 +484,18 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>17.127966933867736</v>
+        <v>16.107472945891786</v>
       </c>
       <c r="G2" s="1">
         <f>FLOOR(F2,1)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1">
         <v>13</v>
       </c>
       <c r="I2" s="1">
         <f>G2-H2</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -515,18 +515,18 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>16.848982965931867</v>
+        <v>15.512796593186373</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G66" si="0">FLOOR(F3,1)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1">
         <v>13</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I66" si="1">G3-H3</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -546,18 +546,18 @@
         <v>5</v>
       </c>
       <c r="F4">
-        <v>17.986943887775549</v>
+        <v>16.268989979959919</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1">
         <v>13</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -577,18 +577,18 @@
         <v>5</v>
       </c>
       <c r="F5">
-        <v>17.399609218436876</v>
+        <v>15.879880761523049</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5" s="1">
         <v>13</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -608,18 +608,18 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>16.210256513026053</v>
+        <v>15.109004008016029</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="1">
         <v>13</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -639,18 +639,18 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>17.03986673346693</v>
+        <v>16.753541082164329</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="1">
         <v>13</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -670,18 +670,18 @@
         <v>5</v>
       </c>
       <c r="F8">
-        <v>20.196790581162325</v>
+        <v>18.126435871743489</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H8" s="1">
         <v>13</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -701,18 +701,18 @@
         <v>5</v>
       </c>
       <c r="F9">
-        <v>17.906185370741483</v>
+        <v>16.408481963927855</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" s="1">
         <v>13</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -763,18 +763,18 @@
         <v>5</v>
       </c>
       <c r="F11">
-        <v>17.054550100200405</v>
+        <v>15.872539078156313</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H11" s="1">
         <v>13</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -794,7 +794,7 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <v>20.673999999999999</v>
+        <v>20.651974949899795</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
@@ -825,18 +825,18 @@
         <v>5</v>
       </c>
       <c r="F13">
-        <v>17.326192384769541</v>
+        <v>15.784438877755511</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H13" s="1">
         <v>13</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -856,18 +856,18 @@
         <v>5</v>
       </c>
       <c r="F14">
-        <v>19.499330661322649</v>
+        <v>17.274800601202404</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H14" s="1">
         <v>13</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -887,18 +887,18 @@
         <v>5</v>
       </c>
       <c r="F15">
-        <v>18.97807114228457</v>
+        <v>16.988474949899796</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H15" s="1">
         <v>13</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -918,18 +918,18 @@
         <v>5</v>
       </c>
       <c r="F16">
-        <v>18.677062124248501</v>
+        <v>16.966449899799596</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H16" s="1">
         <v>13</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -949,18 +949,18 @@
         <v>5</v>
       </c>
       <c r="F17">
-        <v>20.380332665330663</v>
+        <v>18.309977955911826</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H17" s="1">
         <v>13</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -980,18 +980,18 @@
         <v>5</v>
       </c>
       <c r="F18">
-        <v>17.428975951903809</v>
+        <v>15.696338677354708</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H18" s="1">
         <v>13</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1011,18 +1011,18 @@
         <v>5</v>
       </c>
       <c r="F19">
-        <v>20.101348697394787</v>
+        <v>17.942893787575152</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H19" s="1">
         <v>13</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1042,7 +1042,7 @@
         <v>5</v>
       </c>
       <c r="F20">
-        <v>16.8563246492986</v>
+        <v>16.349748496993985</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="0"/>
@@ -1104,18 +1104,18 @@
         <v>50</v>
       </c>
       <c r="F22">
-        <v>45.949304609218423</v>
+        <v>43.7989509018036</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H22" s="1">
         <v>40</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1135,18 +1135,18 @@
         <v>50</v>
       </c>
       <c r="F23">
-        <v>46.374649298597198</v>
+        <v>43.562648296593188</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H23" s="1">
         <v>40</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1166,18 +1166,18 @@
         <v>50</v>
       </c>
       <c r="F24">
-        <v>46.043825651302598</v>
+        <v>43.987992985971943</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H24" s="1">
         <v>40</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1197,18 +1197,18 @@
         <v>50</v>
       </c>
       <c r="F25">
-        <v>46.941775551102189</v>
+        <v>44.36607715430862</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H25" s="1">
         <v>40</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1228,18 +1228,18 @@
         <v>50</v>
       </c>
       <c r="F26">
-        <v>44.153404809619239</v>
+        <v>43.090043086172344</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H26" s="1">
         <v>40</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1259,18 +1259,18 @@
         <v>50</v>
       </c>
       <c r="F27">
-        <v>46.303758517034069</v>
+        <v>43.775320641282569</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H27" s="1">
         <v>40</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1290,18 +1290,18 @@
         <v>50</v>
       </c>
       <c r="F28">
-        <v>40.585235470941882</v>
+        <v>63.671999999999997</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="H28" s="1">
         <v>40</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1321,18 +1321,18 @@
         <v>50</v>
       </c>
       <c r="F29">
-        <v>50.037339679358723</v>
+        <v>46.232867735470947</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H29" s="1">
         <v>40</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -1352,18 +1352,18 @@
         <v>50</v>
       </c>
       <c r="F30">
-        <v>60.245612224448898</v>
+        <v>51.431525050100213</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H30" s="1">
         <v>40</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1383,18 +1383,18 @@
         <v>50</v>
       </c>
       <c r="F31">
-        <v>46.870884769539074</v>
+        <v>44.058883767535072</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H31" s="1">
         <v>40</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -1414,18 +1414,18 @@
         <v>50</v>
       </c>
       <c r="F32">
-        <v>45.594850701402819</v>
+        <v>43.25545490981964</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H32" s="1">
         <v>40</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -1445,18 +1445,18 @@
         <v>50</v>
       </c>
       <c r="F33">
-        <v>45.122245490981946</v>
+        <v>42.735589178356705</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H33" s="1">
         <v>40</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -1476,18 +1476,18 @@
         <v>50</v>
       </c>
       <c r="F34">
-        <v>42.286614228456912</v>
+        <v>41.577706412825648</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H34" s="1">
         <v>40</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -1507,18 +1507,18 @@
         <v>50</v>
       </c>
       <c r="F35">
-        <v>47.01266633266534</v>
+        <v>43.775320641282555</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H35" s="1">
         <v>40</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -1538,18 +1538,18 @@
         <v>50</v>
       </c>
       <c r="F36">
-        <v>45.453069138276568</v>
+        <v>43.208194388777549</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H36" s="1">
         <v>40</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -1569,18 +1569,18 @@
         <v>50</v>
       </c>
       <c r="F37">
-        <v>45.429438877755523</v>
+        <v>43.019152304609221</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H37" s="1">
         <v>40</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -1600,18 +1600,18 @@
         <v>50</v>
       </c>
       <c r="F38">
-        <v>48.099658316633274</v>
+        <v>45.098615230460922</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H38" s="1">
         <v>40</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -1631,18 +1631,18 @@
         <v>50</v>
       </c>
       <c r="F39">
-        <v>55.874014028056116</v>
+        <v>49.682885771543084</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H39" s="1">
         <v>40</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -1662,18 +1662,18 @@
         <v>50</v>
       </c>
       <c r="F40">
-        <v>40.585235470941882</v>
+        <v>63.671999999999997</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="H40" s="1">
         <v>40</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -1724,18 +1724,18 @@
         <v>500</v>
       </c>
       <c r="F42">
-        <v>54.839284569138279</v>
+        <v>52.313152304609218</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H42" s="1">
         <v>48</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -1755,18 +1755,18 @@
         <v>500</v>
       </c>
       <c r="F43">
-        <v>53.941104208416839</v>
+        <v>50.460655310621242</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H43" s="1">
         <v>48</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -1786,18 +1786,18 @@
         <v>500</v>
       </c>
       <c r="F44">
-        <v>62.361545090180357</v>
+        <v>54.979625250500995</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H44" s="1">
         <v>48</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -1817,18 +1817,18 @@
         <v>500</v>
       </c>
       <c r="F45">
-        <v>52.537697394789589</v>
+        <v>51.134290581162318</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H45" s="1">
         <v>48</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -1848,18 +1848,18 @@
         <v>500</v>
       </c>
       <c r="F46">
-        <v>51.807925851703402</v>
+        <v>50.544859719438875</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H46" s="1">
         <v>48</v>
       </c>
       <c r="I46" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -1879,18 +1879,18 @@
         <v>500</v>
       </c>
       <c r="F47">
-        <v>51.864062124248491</v>
+        <v>49.955428857715425</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H47" s="1">
         <v>48</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -1910,18 +1910,18 @@
         <v>500</v>
       </c>
       <c r="F48">
-        <v>49.001112224448896</v>
+        <v>48.692362725450899</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H48" s="1">
         <v>48</v>
       </c>
       <c r="I48" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -1941,18 +1941,18 @@
         <v>500</v>
       </c>
       <c r="F49">
-        <v>66.291084168336724</v>
+        <v>58.656551102204403</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H49" s="1">
         <v>48</v>
       </c>
       <c r="I49" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -1972,18 +1972,18 @@
         <v>500</v>
       </c>
       <c r="F50">
-        <v>55.09189779559118</v>
+        <v>52.116675350701392</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H50" s="1">
         <v>48</v>
       </c>
       <c r="I50" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -2003,18 +2003,18 @@
         <v>500</v>
       </c>
       <c r="F51">
-        <v>55.428715430861715</v>
+        <v>52.481561122244486</v>
       </c>
       <c r="G51" s="1">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H51" s="1">
         <v>48</v>
       </c>
       <c r="I51" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -2034,18 +2034,18 @@
         <v>500</v>
       </c>
       <c r="F52">
-        <v>55.933941883767531</v>
+        <v>53.014855711422847</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H52" s="1">
         <v>48</v>
       </c>
       <c r="I52" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -2065,18 +2065,18 @@
         <v>500</v>
       </c>
       <c r="F53">
-        <v>54.839284569138279</v>
+        <v>52.34122044088177</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H53" s="1">
         <v>48</v>
       </c>
       <c r="I53" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -2096,18 +2096,18 @@
         <v>500</v>
       </c>
       <c r="F54">
-        <v>53.127128256513018</v>
+        <v>51.864062124248505</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H54" s="1">
         <v>48</v>
       </c>
       <c r="I54" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -2127,18 +2127,18 @@
         <v>500</v>
       </c>
       <c r="F55">
-        <v>53.070991983967929</v>
+        <v>50.769404809619239</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H55" s="1">
         <v>48</v>
       </c>
       <c r="I55" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -2158,18 +2158,18 @@
         <v>500</v>
       </c>
       <c r="F56">
-        <v>55.737464929859712</v>
+        <v>53.688490981963938</v>
       </c>
       <c r="G56" s="1">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H56" s="1">
         <v>48</v>
       </c>
       <c r="I56" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -2189,18 +2189,18 @@
         <v>500</v>
       </c>
       <c r="F57">
-        <v>56.775985971943889</v>
+        <v>53.01485571142284</v>
       </c>
       <c r="G57" s="1">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H57" s="1">
         <v>48</v>
       </c>
       <c r="I57" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -2220,18 +2220,18 @@
         <v>500</v>
       </c>
       <c r="F58">
-        <v>57.281212424849699</v>
+        <v>53.772695390781564</v>
       </c>
       <c r="G58" s="1">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H58" s="1">
         <v>48</v>
       </c>
       <c r="I58" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -2251,18 +2251,18 @@
         <v>500</v>
       </c>
       <c r="F59">
-        <v>54.755080160320645</v>
+        <v>51.639517034068135</v>
       </c>
       <c r="G59" s="1">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H59" s="1">
         <v>48</v>
       </c>
       <c r="I59" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -2282,18 +2282,18 @@
         <v>500</v>
       </c>
       <c r="F60">
-        <v>49.113384769539081</v>
+        <v>48.748498997995995</v>
       </c>
       <c r="G60" s="1">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H60" s="1">
         <v>48</v>
       </c>
       <c r="I60" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -2313,18 +2313,18 @@
         <v>500</v>
       </c>
       <c r="F61">
-        <v>69.210170340681344</v>
+        <v>57.758370741482963</v>
       </c>
       <c r="G61" s="1">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H61" s="1">
         <v>48</v>
       </c>
       <c r="I61" s="1">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -2344,18 +2344,18 @@
         <v>5</v>
       </c>
       <c r="F62">
-        <v>23.750929859719438</v>
+        <v>22.592955911823648</v>
       </c>
       <c r="G62" s="1">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H62" s="1">
         <v>19</v>
       </c>
       <c r="I62" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -2375,18 +2375,18 @@
         <v>5</v>
       </c>
       <c r="F63">
-        <v>23.060460921843685</v>
+        <v>22.686456913827655</v>
       </c>
       <c r="G63" s="1">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H63" s="1">
         <v>19</v>
       </c>
       <c r="I63" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -2406,7 +2406,7 @@
         <v>5</v>
       </c>
       <c r="F64">
-        <v>22.974152304609216</v>
+        <v>22.571378757515031</v>
       </c>
       <c r="G64" s="1">
         <f t="shared" si="0"/>
@@ -2437,7 +2437,7 @@
         <v>5</v>
       </c>
       <c r="F65">
-        <v>22.686456913827662</v>
+        <v>22.269298597194389</v>
       </c>
       <c r="G65" s="1">
         <f t="shared" si="0"/>
@@ -2468,18 +2468,18 @@
         <v>5</v>
       </c>
       <c r="F66">
-        <v>23.492004008016025</v>
+        <v>22.269298597194389</v>
       </c>
       <c r="G66" s="1">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H66" s="1">
         <v>19</v>
       </c>
       <c r="I66" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -2499,7 +2499,7 @@
         <v>5</v>
       </c>
       <c r="F67">
-        <v>22.348414829659319</v>
+        <v>22.197374749498998</v>
       </c>
       <c r="G67" s="1">
         <f t="shared" ref="G67:G121" si="2">FLOOR(F67,1)</f>
@@ -2530,18 +2530,18 @@
         <v>5</v>
       </c>
       <c r="F68">
-        <v>22.91661322645291</v>
+        <v>21.693907815631263</v>
       </c>
       <c r="G68" s="1">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H68" s="1">
         <v>19</v>
       </c>
       <c r="I68" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -2561,18 +2561,18 @@
         <v>5</v>
       </c>
       <c r="F69">
-        <v>23.312194388777552</v>
+        <v>22.060719438877754</v>
       </c>
       <c r="G69" s="1">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H69" s="1">
         <v>19</v>
       </c>
       <c r="I69" s="1">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -2592,18 +2592,18 @@
         <v>5</v>
       </c>
       <c r="F70">
-        <v>26.376150300601203</v>
+        <v>25.62814228456914</v>
       </c>
       <c r="G70" s="1">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H70" s="1">
         <v>19</v>
       </c>
       <c r="I70" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -2623,18 +2623,18 @@
         <v>5</v>
       </c>
       <c r="F71">
-        <v>24.635593186372745</v>
+        <v>22.571378757515031</v>
       </c>
       <c r="G71" s="1">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H71" s="1">
         <v>19</v>
       </c>
       <c r="I71" s="1">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
@@ -2654,18 +2654,18 @@
         <v>5</v>
       </c>
       <c r="F72">
-        <v>24.42701402805611</v>
+        <v>22.751188376753507</v>
       </c>
       <c r="G72" s="1">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H72" s="1">
         <v>19</v>
       </c>
       <c r="I72" s="1">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -2685,18 +2685,18 @@
         <v>5</v>
       </c>
       <c r="F73">
-        <v>23.750929859719434</v>
+        <v>22.190182364729459</v>
       </c>
       <c r="G73" s="1">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H73" s="1">
         <v>19</v>
       </c>
       <c r="I73" s="1">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -2716,18 +2716,18 @@
         <v>5</v>
       </c>
       <c r="F74">
-        <v>23.470426853707416</v>
+        <v>22.190182364729459</v>
       </c>
       <c r="G74" s="1">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H74" s="1">
         <v>19</v>
       </c>
       <c r="I74" s="1">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -2747,18 +2747,18 @@
         <v>5</v>
       </c>
       <c r="F75">
-        <v>24.779440881763527</v>
+        <v>23.305002004008017</v>
       </c>
       <c r="G75" s="1">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H75" s="1">
         <v>19</v>
       </c>
       <c r="I75" s="1">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
@@ -2778,18 +2778,18 @@
         <v>5</v>
       </c>
       <c r="F76">
-        <v>22.859074148296589</v>
+        <v>21.600406813627252</v>
       </c>
       <c r="G76" s="1">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H76" s="1">
         <v>19</v>
       </c>
       <c r="I76" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -2871,18 +2871,18 @@
         <v>5</v>
       </c>
       <c r="F79">
-        <v>26.707000000000001</v>
+        <v>25.33325450901804</v>
       </c>
       <c r="G79" s="1">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H79" s="1">
         <v>19</v>
       </c>
       <c r="I79" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -2902,18 +2902,18 @@
         <v>5</v>
       </c>
       <c r="F80">
-        <v>23.664621242484973</v>
+        <v>22.672072144288578</v>
       </c>
       <c r="G80" s="1">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H80" s="1">
         <v>19</v>
       </c>
       <c r="I80" s="1">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
@@ -2964,18 +2964,18 @@
         <v>50</v>
       </c>
       <c r="F82">
-        <v>50.85019438877756</v>
+        <v>49.742509018036074</v>
       </c>
       <c r="G82" s="1">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H82" s="1">
         <v>45</v>
       </c>
       <c r="I82" s="1">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
@@ -2995,18 +2995,18 @@
         <v>50</v>
       </c>
       <c r="F83">
-        <v>51.2440380761523</v>
+        <v>49.422511022044091</v>
       </c>
       <c r="G83" s="1">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H83" s="1">
         <v>45</v>
       </c>
       <c r="I83" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
@@ -3026,18 +3026,18 @@
         <v>50</v>
       </c>
       <c r="F84">
-        <v>53.016334669338676</v>
+        <v>50.087122244488981</v>
       </c>
       <c r="G84" s="1">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H84" s="1">
         <v>45</v>
       </c>
       <c r="I84" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
@@ -3057,18 +3057,18 @@
         <v>50</v>
       </c>
       <c r="F85">
-        <v>46.493298597194382</v>
+        <v>45.927148296593181</v>
       </c>
       <c r="G85" s="1">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H85" s="1">
         <v>45</v>
       </c>
       <c r="I85" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -3088,18 +3088,18 @@
         <v>50</v>
       </c>
       <c r="F86">
-        <v>52.819412825651298</v>
+        <v>49.988661322645285</v>
       </c>
       <c r="G86" s="1">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H86" s="1">
         <v>45</v>
       </c>
       <c r="I86" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
@@ -3119,18 +3119,18 @@
         <v>50</v>
       </c>
       <c r="F87">
-        <v>49.570202404809613</v>
+        <v>47.724060120240487</v>
       </c>
       <c r="G87" s="1">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H87" s="1">
         <v>45</v>
       </c>
       <c r="I87" s="1">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
@@ -3150,18 +3150,18 @@
         <v>50</v>
       </c>
       <c r="F88">
-        <v>47.600983967935868</v>
+        <v>46.665605210420836</v>
       </c>
       <c r="G88" s="1">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H88" s="1">
         <v>45</v>
       </c>
       <c r="I88" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
@@ -3181,18 +3181,18 @@
         <v>50</v>
       </c>
       <c r="F89">
-        <v>52.819412825651298</v>
+        <v>49.939430861723437</v>
       </c>
       <c r="G89" s="1">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H89" s="1">
         <v>45</v>
       </c>
       <c r="I89" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
@@ -3212,18 +3212,18 @@
         <v>50</v>
       </c>
       <c r="F90">
-        <v>60.720901803607205</v>
+        <v>59.637831663326651</v>
       </c>
       <c r="G90" s="1">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H90" s="1">
         <v>45</v>
       </c>
       <c r="I90" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
@@ -3243,18 +3243,18 @@
         <v>50</v>
       </c>
       <c r="F91">
-        <v>58.410916270040083</v>
+        <v>48.585593186372741</v>
       </c>
       <c r="G91" s="1">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H91" s="1">
         <v>45</v>
       </c>
       <c r="I91" s="1">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
@@ -3274,18 +3274,18 @@
         <v>50</v>
       </c>
       <c r="F92">
-        <v>58.677837675350709</v>
+        <v>53.951713426853715</v>
       </c>
       <c r="G92" s="1">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H92" s="1">
         <v>45</v>
       </c>
       <c r="I92" s="1">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
@@ -3305,18 +3305,18 @@
         <v>50</v>
       </c>
       <c r="F93">
-        <v>49.693278557114219</v>
+        <v>48.142519038076159</v>
       </c>
       <c r="G93" s="1">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H93" s="1">
         <v>45</v>
       </c>
       <c r="I93" s="1">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
@@ -3336,18 +3336,18 @@
         <v>50</v>
       </c>
       <c r="F94">
-        <v>54.985553106212421</v>
+        <v>50.357889779559116</v>
       </c>
       <c r="G94" s="1">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H94" s="1">
         <v>45</v>
       </c>
       <c r="I94" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
@@ -3367,18 +3367,18 @@
         <v>50</v>
       </c>
       <c r="F95">
-        <v>57.077847695390766</v>
+        <v>52.647106212424845</v>
       </c>
       <c r="G95" s="1">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H95" s="1">
         <v>45</v>
       </c>
       <c r="I95" s="1">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
@@ -3398,18 +3398,18 @@
         <v>50</v>
       </c>
       <c r="F96">
-        <v>48.21636472945891</v>
+        <v>46.88714228456913</v>
       </c>
       <c r="G96" s="1">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H96" s="1">
         <v>45</v>
       </c>
       <c r="I96" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
@@ -3429,18 +3429,18 @@
         <v>50</v>
       </c>
       <c r="F97">
-        <v>62.591659318637269</v>
+        <v>56.216314629258513</v>
       </c>
       <c r="G97" s="1">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H97" s="1">
         <v>45</v>
       </c>
       <c r="I97" s="1">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
@@ -3460,18 +3460,18 @@
         <v>50</v>
       </c>
       <c r="F98">
-        <v>59.440909819639288</v>
+        <v>53.065565130260516</v>
       </c>
       <c r="G98" s="1">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H98" s="1">
         <v>45</v>
       </c>
       <c r="I98" s="1">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
@@ -3491,18 +3491,18 @@
         <v>50</v>
       </c>
       <c r="F99">
-        <v>61.188591182364725</v>
+        <v>54.690170340681355</v>
       </c>
       <c r="G99" s="1">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H99" s="1">
         <v>45</v>
       </c>
       <c r="I99" s="1">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
@@ -3522,18 +3522,18 @@
         <v>50</v>
       </c>
       <c r="F100">
-        <v>54.985553106212436</v>
+        <v>51.342498997995989</v>
       </c>
       <c r="G100" s="1">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H100" s="1">
         <v>45</v>
       </c>
       <c r="I100" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
@@ -3584,18 +3584,18 @@
         <v>500</v>
       </c>
       <c r="F102">
-        <v>56.072450901803606</v>
+        <v>54.650919839679354</v>
       </c>
       <c r="G102" s="1">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H102" s="1">
         <v>52</v>
       </c>
       <c r="I102" s="1">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
@@ -3615,7 +3615,7 @@
         <v>500</v>
       </c>
       <c r="F103">
-        <v>53.413661322645297</v>
+        <v>53.071440881763529</v>
       </c>
       <c r="G103" s="1">
         <f t="shared" si="2"/>
@@ -3646,7 +3646,7 @@
         <v>500</v>
       </c>
       <c r="F104">
-        <v>53.808531062124253</v>
+        <v>53.255713426853703</v>
       </c>
       <c r="G104" s="1">
         <f t="shared" si="2"/>
@@ -3677,18 +3677,18 @@
         <v>500</v>
       </c>
       <c r="F105">
-        <v>54.045452905811629</v>
+        <v>53.492635270541086</v>
       </c>
       <c r="G105" s="1">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H105" s="1">
         <v>52</v>
       </c>
       <c r="I105" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
@@ -3708,18 +3708,18 @@
         <v>500</v>
       </c>
       <c r="F106">
-        <v>54.019128256513028</v>
+        <v>53.282038076152304</v>
       </c>
       <c r="G106" s="1">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H106" s="1">
         <v>52</v>
       </c>
       <c r="I106" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
@@ -3739,7 +3739,7 @@
         <v>500</v>
       </c>
       <c r="F107">
-        <v>52.887168336673348</v>
+        <v>52.702895791583167</v>
       </c>
       <c r="G107" s="1">
         <f t="shared" si="2"/>
@@ -3770,7 +3770,7 @@
         <v>500</v>
       </c>
       <c r="F108">
-        <v>53.887505010020035</v>
+        <v>53.361012024048094</v>
       </c>
       <c r="G108" s="1">
         <f t="shared" si="2"/>
@@ -3801,7 +3801,7 @@
         <v>500</v>
       </c>
       <c r="F109">
-        <v>53.466310621242485</v>
+        <v>53.071440881763529</v>
       </c>
       <c r="G109" s="1">
         <f t="shared" si="2"/>
@@ -3832,7 +3832,7 @@
         <v>500</v>
       </c>
       <c r="F110">
-        <v>53.466310621242485</v>
+        <v>53.097765531062123</v>
       </c>
       <c r="G110" s="1">
         <f t="shared" si="2"/>
@@ -3863,18 +3863,18 @@
         <v>500</v>
       </c>
       <c r="F111">
-        <v>60.942511022044094</v>
+        <v>57.388683366733467</v>
       </c>
       <c r="G111" s="1">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H111" s="1">
         <v>52</v>
       </c>
       <c r="I111" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
@@ -3894,18 +3894,18 @@
         <v>500</v>
       </c>
       <c r="F112">
-        <v>57.309709418837684</v>
+        <v>55.151088176352708</v>
       </c>
       <c r="G112" s="1">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H112" s="1">
         <v>52</v>
       </c>
       <c r="I112" s="1">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
@@ -3925,18 +3925,18 @@
         <v>500</v>
       </c>
       <c r="F113">
-        <v>58.125773547094191</v>
+        <v>56.177749498998004</v>
       </c>
       <c r="G113" s="1">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H113" s="1">
         <v>52</v>
       </c>
       <c r="I113" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
@@ -3956,18 +3956,18 @@
         <v>500</v>
       </c>
       <c r="F114">
-        <v>54.887841683366737</v>
+        <v>53.992803607214427</v>
       </c>
       <c r="G114" s="1">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H114" s="1">
         <v>52</v>
       </c>
       <c r="I114" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
@@ -3987,18 +3987,18 @@
         <v>500</v>
       </c>
       <c r="F115">
-        <v>55.01946492985973</v>
+        <v>53.782206412825651</v>
       </c>
       <c r="G115" s="1">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H115" s="1">
         <v>52</v>
       </c>
       <c r="I115" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
@@ -4018,18 +4018,18 @@
         <v>500</v>
       </c>
       <c r="F116">
-        <v>54.54562124248497</v>
+        <v>53.729557114228456</v>
       </c>
       <c r="G116" s="1">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H116" s="1">
         <v>52</v>
       </c>
       <c r="I116" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
@@ -4049,18 +4049,18 @@
         <v>500</v>
       </c>
       <c r="F117">
-        <v>54.387673346693383</v>
+        <v>53.571609218436876</v>
       </c>
       <c r="G117" s="1">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H117" s="1">
         <v>52</v>
       </c>
       <c r="I117" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
@@ -4080,18 +4080,18 @@
         <v>500</v>
       </c>
       <c r="F118">
-        <v>60.889861723446899</v>
+        <v>57.151761523046105</v>
       </c>
       <c r="G118" s="1">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H118" s="1">
         <v>52</v>
       </c>
       <c r="I118" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
@@ -4111,18 +4111,18 @@
         <v>500</v>
       </c>
       <c r="F119">
-        <v>58.546967935871749</v>
+        <v>56.046126252505019</v>
       </c>
       <c r="G119" s="1">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H119" s="1">
         <v>52</v>
       </c>
       <c r="I119" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
@@ -4142,18 +4142,18 @@
         <v>500</v>
       </c>
       <c r="F120">
-        <v>56.519969939879765</v>
+        <v>54.861517034068143</v>
       </c>
       <c r="G120" s="1">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H120" s="1">
         <v>52</v>
       </c>
       <c r="I120" s="1">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
@@ -4173,18 +4173,18 @@
         <v>500</v>
       </c>
       <c r="F121">
-        <v>67.356785003970217</v>
+        <v>71.483410110543659</v>
       </c>
       <c r="G121" s="1">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H121" s="1">
         <v>52</v>
       </c>
       <c r="I121" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/statistics/rawdataAnovaLoudnessDiffThreshold.xlsx
+++ b/matlab/statistics/rawdataAnovaLoudnessDiffThreshold.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\thesis\matlab\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2CABA4-7858-41D9-BFD6-7F096AD9B3D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3EA451-29FA-44E2-8D2C-53D37E3E0C58}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150" xr2:uid="{7AF3A03D-CE9E-409E-9E62-EADF04CEEE14}"/>
   </bookViews>
@@ -76,6 +76,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,9 +108,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -426,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D8E72B-909E-4713-9154-9D34E1C8C58B}">
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -484,18 +490,17 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>16.107472945891786</v>
-      </c>
-      <c r="G2" s="1">
-        <f>FLOOR(F2,1)</f>
-        <v>16</v>
+        <v>15.997347695390783</v>
+      </c>
+      <c r="G2" s="2">
+        <v>15.997347695390783</v>
       </c>
       <c r="H2" s="1">
         <v>13</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <f>G2-H2</f>
-        <v>3</v>
+        <v>2.9973476953907827</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -515,18 +520,17 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>15.512796593186373</v>
-      </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G66" si="0">FLOOR(F3,1)</f>
-        <v>15</v>
+        <v>15.373304609218437</v>
+      </c>
+      <c r="G3" s="2">
+        <v>15.373304609218437</v>
       </c>
       <c r="H3" s="1">
         <v>13</v>
       </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I66" si="1">G3-H3</f>
-        <v>2</v>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I66" si="0">G3-H3</f>
+        <v>2.3733046092184367</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -546,18 +550,17 @@
         <v>5</v>
       </c>
       <c r="F4">
-        <v>16.268989979959919</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>16.10013126252505</v>
+      </c>
+      <c r="G4" s="2">
+        <v>16.10013126252505</v>
       </c>
       <c r="H4" s="1">
         <v>13</v>
       </c>
-      <c r="I4" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1001312625250499</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -577,18 +580,17 @@
         <v>5</v>
       </c>
       <c r="F5">
-        <v>15.879880761523049</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>15.725705410821641</v>
+      </c>
+      <c r="G5" s="2">
+        <v>15.725705410821641</v>
       </c>
       <c r="H5" s="1">
         <v>13</v>
       </c>
-      <c r="I5" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7257054108216412</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -608,18 +610,17 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>15.109004008016029</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14.998878757515032</v>
+      </c>
+      <c r="G6" s="2">
+        <v>14.998878757515032</v>
       </c>
       <c r="H6" s="1">
         <v>13</v>
       </c>
-      <c r="I6" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9988787575150315</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -639,18 +640,17 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>16.753541082164329</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>16.716832665330664</v>
+      </c>
+      <c r="G7" s="2">
+        <v>16.716832665330664</v>
       </c>
       <c r="H7" s="1">
         <v>13</v>
       </c>
-      <c r="I7" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7168326653306636</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -670,18 +670,17 @@
         <v>5</v>
       </c>
       <c r="F8">
-        <v>18.126435871743489</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17.781376753507018</v>
+      </c>
+      <c r="G8" s="2">
+        <v>17.781376753507018</v>
       </c>
       <c r="H8" s="1">
         <v>13</v>
       </c>
-      <c r="I8" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7813767535070184</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -701,18 +700,17 @@
         <v>5</v>
       </c>
       <c r="F9">
-        <v>16.408481963927855</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>16.283673346693384</v>
+      </c>
+      <c r="G9" s="2">
+        <v>16.283673346693384</v>
       </c>
       <c r="H9" s="1">
         <v>13</v>
       </c>
-      <c r="I9" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2836733466933836</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -734,16 +732,15 @@
       <c r="F10">
         <v>20.673999999999999</v>
       </c>
-      <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
+      <c r="G10" s="2">
+        <v>20.673999999999999</v>
       </c>
       <c r="H10" s="1">
         <v>13</v>
       </c>
-      <c r="I10" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>7.6739999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -763,18 +760,17 @@
         <v>5</v>
       </c>
       <c r="F11">
-        <v>15.872539078156313</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>15.755072144288578</v>
+      </c>
+      <c r="G11" s="2">
+        <v>15.755072144288578</v>
       </c>
       <c r="H11" s="1">
         <v>13</v>
       </c>
-      <c r="I11" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7550721442885777</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -794,18 +790,17 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <v>20.651974949899795</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>20.196790581162325</v>
+      </c>
+      <c r="G12" s="2">
+        <v>20.196790581162325</v>
       </c>
       <c r="H12" s="1">
         <v>13</v>
       </c>
-      <c r="I12" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>7.1967905811623254</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -825,18 +820,17 @@
         <v>5</v>
       </c>
       <c r="F13">
-        <v>15.784438877755511</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>15.630263527054106</v>
+      </c>
+      <c r="G13" s="2">
+        <v>15.630263527054106</v>
       </c>
       <c r="H13" s="1">
         <v>13</v>
       </c>
-      <c r="I13" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6302635270541064</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -856,18 +850,17 @@
         <v>5</v>
       </c>
       <c r="F14">
-        <v>17.274800601202404</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <v>17.054550100200398</v>
+      </c>
+      <c r="G14" s="2">
+        <v>17.054550100200398</v>
       </c>
       <c r="H14" s="1">
         <v>13</v>
       </c>
-      <c r="I14" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0545501002003981</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -887,18 +880,17 @@
         <v>5</v>
       </c>
       <c r="F15">
-        <v>16.988474949899796</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>16.790249498997994</v>
+      </c>
+      <c r="G15" s="2">
+        <v>16.790249498997994</v>
       </c>
       <c r="H15" s="1">
         <v>13</v>
       </c>
-      <c r="I15" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7902494989979942</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -918,18 +910,17 @@
         <v>5</v>
       </c>
       <c r="F16">
-        <v>16.966449899799596</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>16.79759118236473</v>
+      </c>
+      <c r="G16" s="2">
+        <v>16.79759118236473</v>
       </c>
       <c r="H16" s="1">
         <v>13</v>
       </c>
-      <c r="I16" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7975911823647301</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -949,18 +940,17 @@
         <v>5</v>
       </c>
       <c r="F17">
-        <v>18.309977955911826</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17.928210420841683</v>
+      </c>
+      <c r="G17" s="2">
+        <v>17.928210420841683</v>
       </c>
       <c r="H17" s="1">
         <v>13</v>
       </c>
-      <c r="I17" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9282104208416833</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -980,18 +970,17 @@
         <v>5</v>
       </c>
       <c r="F18">
-        <v>15.696338677354708</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>15.527479959919839</v>
+      </c>
+      <c r="G18" s="2">
+        <v>15.527479959919839</v>
       </c>
       <c r="H18" s="1">
         <v>13</v>
       </c>
-      <c r="I18" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5274799599198392</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1011,18 +1000,17 @@
         <v>5</v>
       </c>
       <c r="F19">
-        <v>17.942893787575152</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <v>17.612518036072146</v>
+      </c>
+      <c r="G19" s="2">
+        <v>17.612518036072146</v>
       </c>
       <c r="H19" s="1">
         <v>13</v>
       </c>
-      <c r="I19" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>4.6125180360721458</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1042,18 +1030,17 @@
         <v>5</v>
       </c>
       <c r="F20">
-        <v>16.349748496993985</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>16.283673346693387</v>
+      </c>
+      <c r="G20" s="2">
+        <v>16.283673346693387</v>
       </c>
       <c r="H20" s="1">
         <v>13</v>
       </c>
-      <c r="I20" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2836733466933872</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1075,16 +1062,15 @@
       <c r="F21">
         <v>20.673999999999999</v>
       </c>
-      <c r="G21" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
+      <c r="G21" s="2">
+        <v>20.673999999999999</v>
       </c>
       <c r="H21" s="1">
         <v>13</v>
       </c>
-      <c r="I21" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>7.6739999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1104,18 +1090,17 @@
         <v>50</v>
       </c>
       <c r="F22">
-        <v>43.7989509018036</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <v>43.586278557114234</v>
+      </c>
+      <c r="G22" s="2">
+        <v>43.586278557114234</v>
       </c>
       <c r="H22" s="1">
         <v>40</v>
       </c>
-      <c r="I22" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5862785571142339</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1135,18 +1120,17 @@
         <v>50</v>
       </c>
       <c r="F23">
-        <v>43.562648296593188</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <v>43.279085170340679</v>
+      </c>
+      <c r="G23" s="2">
+        <v>43.279085170340679</v>
       </c>
       <c r="H23" s="1">
         <v>40</v>
       </c>
-      <c r="I23" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I23" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2790851703406787</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1166,18 +1150,17 @@
         <v>50</v>
       </c>
       <c r="F24">
-        <v>43.987992985971943</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <v>43.798950901803607</v>
+      </c>
+      <c r="G24" s="2">
+        <v>43.798950901803607</v>
       </c>
       <c r="H24" s="1">
         <v>40</v>
       </c>
-      <c r="I24" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I24" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7989509018036074</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1197,18 +1180,17 @@
         <v>50</v>
       </c>
       <c r="F25">
-        <v>44.36607715430862</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>44.106144288577141</v>
+      </c>
+      <c r="G25" s="2">
+        <v>44.106144288577141</v>
       </c>
       <c r="H25" s="1">
         <v>40</v>
       </c>
-      <c r="I25" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="I25" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1061442885771413</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1228,18 +1210,17 @@
         <v>50</v>
       </c>
       <c r="F26">
-        <v>43.090043086172344</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <v>42.971891783567138</v>
+      </c>
+      <c r="G26" s="2">
+        <v>42.971891783567138</v>
       </c>
       <c r="H26" s="1">
         <v>40</v>
       </c>
-      <c r="I26" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I26" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9718917835671377</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1259,18 +1240,17 @@
         <v>50</v>
       </c>
       <c r="F27">
-        <v>43.775320641282569</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <v>43.515387775551098</v>
+      </c>
+      <c r="G27" s="2">
+        <v>43.515387775551098</v>
       </c>
       <c r="H27" s="1">
         <v>40</v>
       </c>
-      <c r="I27" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I27" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5153877755510976</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1290,18 +1270,17 @@
         <v>50</v>
       </c>
       <c r="F28">
-        <v>63.671999999999997</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="0"/>
-        <v>63</v>
+        <v>40.419823647294585</v>
+      </c>
+      <c r="G28" s="2">
+        <v>40.419823647294585</v>
       </c>
       <c r="H28" s="1">
         <v>40</v>
       </c>
-      <c r="I28" s="1">
-        <f t="shared" si="1"/>
-        <v>23</v>
+      <c r="I28" s="2">
+        <f t="shared" si="0"/>
+        <v>0.4198236472945851</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1321,18 +1300,17 @@
         <v>50</v>
       </c>
       <c r="F29">
-        <v>46.232867735470947</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <v>45.878413827655308</v>
+      </c>
+      <c r="G29" s="2">
+        <v>45.878413827655308</v>
       </c>
       <c r="H29" s="1">
         <v>40</v>
       </c>
-      <c r="I29" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
+      <c r="I29" s="2">
+        <f t="shared" si="0"/>
+        <v>5.878413827655308</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -1352,18 +1330,17 @@
         <v>50</v>
       </c>
       <c r="F30">
-        <v>51.431525050100213</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="0"/>
-        <v>51</v>
+        <v>50.391793587174341</v>
+      </c>
+      <c r="G30" s="2">
+        <v>50.391793587174341</v>
       </c>
       <c r="H30" s="1">
         <v>40</v>
       </c>
-      <c r="I30" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
+      <c r="I30" s="2">
+        <f t="shared" si="0"/>
+        <v>10.391793587174341</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1383,18 +1360,17 @@
         <v>50</v>
       </c>
       <c r="F31">
-        <v>44.058883767535072</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>43.798950901803607</v>
+      </c>
+      <c r="G31" s="2">
+        <v>43.798950901803607</v>
       </c>
       <c r="H31" s="1">
         <v>40</v>
       </c>
-      <c r="I31" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="I31" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7989509018036074</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -1414,18 +1390,17 @@
         <v>50</v>
       </c>
       <c r="F32">
-        <v>43.25545490981964</v>
-      </c>
-      <c r="G32" s="1">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <v>43.019152304609221</v>
+      </c>
+      <c r="G32" s="2">
+        <v>43.019152304609221</v>
       </c>
       <c r="H32" s="1">
         <v>40</v>
       </c>
-      <c r="I32" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I32" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0191523046092215</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -1445,18 +1420,17 @@
         <v>50</v>
       </c>
       <c r="F33">
-        <v>42.735589178356705</v>
-      </c>
-      <c r="G33" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <v>42.522916833667338</v>
+      </c>
+      <c r="G33" s="2">
+        <v>42.522916833667338</v>
       </c>
       <c r="H33" s="1">
         <v>40</v>
       </c>
-      <c r="I33" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="I33" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5229168336673382</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -1476,18 +1450,17 @@
         <v>50</v>
       </c>
       <c r="F34">
-        <v>41.577706412825648</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
+        <v>41.506815631262533</v>
+      </c>
+      <c r="G34" s="2">
+        <v>41.506815631262533</v>
       </c>
       <c r="H34" s="1">
         <v>40</v>
       </c>
-      <c r="I34" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="I34" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5068156312625334</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -1507,18 +1480,17 @@
         <v>50</v>
       </c>
       <c r="F35">
-        <v>43.775320641282555</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <v>43.444496993987975</v>
+      </c>
+      <c r="G35" s="2">
+        <v>43.444496993987975</v>
       </c>
       <c r="H35" s="1">
         <v>40</v>
       </c>
-      <c r="I35" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I35" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4444969939879755</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -1538,18 +1510,17 @@
         <v>50</v>
       </c>
       <c r="F36">
-        <v>43.208194388777549</v>
-      </c>
-      <c r="G36" s="1">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <v>42.971891783567131</v>
+      </c>
+      <c r="G36" s="2">
+        <v>42.971891783567131</v>
       </c>
       <c r="H36" s="1">
         <v>40</v>
       </c>
-      <c r="I36" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I36" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9718917835671306</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -1569,18 +1540,17 @@
         <v>50</v>
       </c>
       <c r="F37">
-        <v>43.019152304609221</v>
-      </c>
-      <c r="G37" s="1">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <v>42.782849699398803</v>
+      </c>
+      <c r="G37" s="2">
+        <v>42.782849699398803</v>
       </c>
       <c r="H37" s="1">
         <v>40</v>
       </c>
-      <c r="I37" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I37" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7828496993988026</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -1600,18 +1570,17 @@
         <v>50</v>
       </c>
       <c r="F38">
-        <v>45.098615230460922</v>
-      </c>
-      <c r="G38" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <v>44.791421843687367</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44.791421843687367</v>
       </c>
       <c r="H38" s="1">
         <v>40</v>
       </c>
-      <c r="I38" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="I38" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7914218436873668</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -1631,18 +1600,17 @@
         <v>50</v>
       </c>
       <c r="F39">
-        <v>49.682885771543084</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <v>49.021238476953897</v>
+      </c>
+      <c r="G39" s="2">
+        <v>49.021238476953897</v>
       </c>
       <c r="H39" s="1">
         <v>40</v>
       </c>
-      <c r="I39" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
+      <c r="I39" s="2">
+        <f t="shared" si="0"/>
+        <v>9.0212384769538971</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -1662,18 +1630,17 @@
         <v>50</v>
       </c>
       <c r="F40">
-        <v>63.671999999999997</v>
-      </c>
-      <c r="G40" s="1">
-        <f t="shared" si="0"/>
-        <v>63</v>
+        <v>40.419823647294585</v>
+      </c>
+      <c r="G40" s="2">
+        <v>40.419823647294585</v>
       </c>
       <c r="H40" s="1">
         <v>40</v>
       </c>
-      <c r="I40" s="1">
-        <f t="shared" si="1"/>
-        <v>23</v>
+      <c r="I40" s="2">
+        <f t="shared" si="0"/>
+        <v>0.4198236472945851</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -1695,16 +1662,15 @@
       <c r="F41">
         <v>63.671999999999997</v>
       </c>
-      <c r="G41" s="1">
-        <f t="shared" si="0"/>
-        <v>63</v>
+      <c r="G41" s="2">
+        <v>63.671999999999997</v>
       </c>
       <c r="H41" s="1">
         <v>40</v>
       </c>
-      <c r="I41" s="1">
-        <f t="shared" si="1"/>
-        <v>23</v>
+      <c r="I41" s="2">
+        <f t="shared" si="0"/>
+        <v>23.671999999999997</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -1724,18 +1690,17 @@
         <v>500</v>
       </c>
       <c r="F42">
-        <v>52.313152304609218</v>
-      </c>
-      <c r="G42" s="1">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <v>52.06053907815631</v>
+      </c>
+      <c r="G42" s="2">
+        <v>52.06053907815631</v>
       </c>
       <c r="H42" s="1">
         <v>48</v>
       </c>
-      <c r="I42" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="I42" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0605390781563102</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -1755,18 +1720,17 @@
         <v>500</v>
       </c>
       <c r="F43">
-        <v>50.460655310621242</v>
-      </c>
-      <c r="G43" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <v>50.1238376753507</v>
+      </c>
+      <c r="G43" s="2">
+        <v>50.1238376753507</v>
       </c>
       <c r="H43" s="1">
         <v>48</v>
       </c>
-      <c r="I43" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="I43" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1238376753506998</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -1786,18 +1750,17 @@
         <v>500</v>
       </c>
       <c r="F44">
-        <v>54.979625250500995</v>
-      </c>
-      <c r="G44" s="1">
-        <f t="shared" si="0"/>
-        <v>54</v>
+        <v>54.305989979959918</v>
+      </c>
+      <c r="G44" s="2">
+        <v>54.305989979959918</v>
       </c>
       <c r="H44" s="1">
         <v>48</v>
       </c>
-      <c r="I44" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
+      <c r="I44" s="2">
+        <f t="shared" si="0"/>
+        <v>6.3059899799599179</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -1817,18 +1780,17 @@
         <v>500</v>
       </c>
       <c r="F45">
-        <v>51.134290581162318</v>
-      </c>
-      <c r="G45" s="1">
-        <f t="shared" si="0"/>
-        <v>51</v>
+        <v>50.993949899799603</v>
+      </c>
+      <c r="G45" s="2">
+        <v>50.993949899799603</v>
       </c>
       <c r="H45" s="1">
         <v>48</v>
       </c>
-      <c r="I45" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I45" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9939498997996026</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -1848,18 +1810,17 @@
         <v>500</v>
       </c>
       <c r="F46">
-        <v>50.544859719438875</v>
-      </c>
-      <c r="G46" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <v>50.404519038076145</v>
+      </c>
+      <c r="G46" s="2">
+        <v>50.404519038076145</v>
       </c>
       <c r="H46" s="1">
         <v>48</v>
       </c>
-      <c r="I46" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="I46" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4045190380761454</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -1879,18 +1840,17 @@
         <v>500</v>
       </c>
       <c r="F47">
-        <v>49.955428857715425</v>
-      </c>
-      <c r="G47" s="1">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <v>49.67474749498998</v>
+      </c>
+      <c r="G47" s="2">
+        <v>49.67474749498998</v>
       </c>
       <c r="H47" s="1">
         <v>48</v>
       </c>
-      <c r="I47" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="I47" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6747474949899797</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -1910,18 +1870,17 @@
         <v>500</v>
       </c>
       <c r="F48">
-        <v>48.692362725450899</v>
-      </c>
-      <c r="G48" s="1">
-        <f t="shared" si="0"/>
-        <v>48</v>
+        <v>48.664294589178354</v>
+      </c>
+      <c r="G48" s="2">
+        <v>48.664294589178354</v>
       </c>
       <c r="H48" s="1">
         <v>48</v>
       </c>
-      <c r="I48" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="I48" s="2">
+        <f t="shared" si="0"/>
+        <v>0.66429458917835404</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -1941,18 +1900,17 @@
         <v>500</v>
       </c>
       <c r="F49">
-        <v>58.656551102204403</v>
-      </c>
-      <c r="G49" s="1">
-        <f t="shared" si="0"/>
-        <v>58</v>
+        <v>57.98291583166332</v>
+      </c>
+      <c r="G49" s="2">
+        <v>57.98291583166332</v>
       </c>
       <c r="H49" s="1">
         <v>48</v>
       </c>
-      <c r="I49" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I49" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9829158316633198</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -1972,18 +1930,17 @@
         <v>500</v>
       </c>
       <c r="F50">
-        <v>52.116675350701392</v>
-      </c>
-      <c r="G50" s="1">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <v>51.835993987975954</v>
+      </c>
+      <c r="G50" s="2">
+        <v>51.835993987975954</v>
       </c>
       <c r="H50" s="1">
         <v>48</v>
       </c>
-      <c r="I50" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="I50" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8359939879759537</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -2003,18 +1960,17 @@
         <v>500</v>
       </c>
       <c r="F51">
-        <v>52.481561122244486</v>
-      </c>
-      <c r="G51" s="1">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <v>52.20087975951904</v>
+      </c>
+      <c r="G51" s="2">
+        <v>52.20087975951904</v>
       </c>
       <c r="H51" s="1">
         <v>48</v>
       </c>
-      <c r="I51" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="I51" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2008797595190401</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -2034,18 +1990,17 @@
         <v>500</v>
       </c>
       <c r="F52">
-        <v>53.014855711422847</v>
-      </c>
-      <c r="G52" s="1">
-        <f t="shared" si="0"/>
-        <v>53</v>
+        <v>52.706106212424842</v>
+      </c>
+      <c r="G52" s="2">
+        <v>52.706106212424842</v>
       </c>
       <c r="H52" s="1">
         <v>48</v>
       </c>
-      <c r="I52" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="I52" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7061062124248423</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -2065,18 +2020,17 @@
         <v>500</v>
       </c>
       <c r="F53">
-        <v>52.34122044088177</v>
-      </c>
-      <c r="G53" s="1">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <v>52.116675350701399</v>
+      </c>
+      <c r="G53" s="2">
+        <v>52.116675350701399</v>
       </c>
       <c r="H53" s="1">
         <v>48</v>
       </c>
-      <c r="I53" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="I53" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1166753507013993</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -2096,18 +2050,17 @@
         <v>500</v>
       </c>
       <c r="F54">
-        <v>51.864062124248505</v>
-      </c>
-      <c r="G54" s="1">
-        <f t="shared" si="0"/>
-        <v>51</v>
+        <v>51.723721442885768</v>
+      </c>
+      <c r="G54" s="2">
+        <v>51.723721442885768</v>
       </c>
       <c r="H54" s="1">
         <v>48</v>
       </c>
-      <c r="I54" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I54" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7237214428857683</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -2127,18 +2080,17 @@
         <v>500</v>
       </c>
       <c r="F55">
-        <v>50.769404809619239</v>
-      </c>
-      <c r="G55" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <v>50.57292785571142</v>
+      </c>
+      <c r="G55" s="2">
+        <v>50.57292785571142</v>
       </c>
       <c r="H55" s="1">
         <v>48</v>
       </c>
-      <c r="I55" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="I55" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5729278557114199</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -2158,18 +2110,17 @@
         <v>500</v>
       </c>
       <c r="F56">
-        <v>53.688490981963938</v>
-      </c>
-      <c r="G56" s="1">
-        <f t="shared" si="0"/>
-        <v>53</v>
+        <v>53.492014028056111</v>
+      </c>
+      <c r="G56" s="2">
+        <v>53.492014028056111</v>
       </c>
       <c r="H56" s="1">
         <v>48</v>
       </c>
-      <c r="I56" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="I56" s="2">
+        <f t="shared" si="0"/>
+        <v>5.4920140280561114</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -2189,18 +2140,17 @@
         <v>500</v>
       </c>
       <c r="F57">
-        <v>53.01485571142284</v>
-      </c>
-      <c r="G57" s="1">
-        <f t="shared" si="0"/>
-        <v>53</v>
+        <v>52.649969939879753</v>
+      </c>
+      <c r="G57" s="2">
+        <v>52.649969939879753</v>
       </c>
       <c r="H57" s="1">
         <v>48</v>
       </c>
-      <c r="I57" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="I57" s="2">
+        <f t="shared" si="0"/>
+        <v>4.6499699398797532</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -2220,18 +2170,17 @@
         <v>500</v>
       </c>
       <c r="F58">
-        <v>53.772695390781564</v>
-      </c>
-      <c r="G58" s="1">
-        <f t="shared" si="0"/>
-        <v>53</v>
+        <v>53.435877755511022</v>
+      </c>
+      <c r="G58" s="2">
+        <v>53.435877755511022</v>
       </c>
       <c r="H58" s="1">
         <v>48</v>
       </c>
-      <c r="I58" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="I58" s="2">
+        <f t="shared" si="0"/>
+        <v>5.4358777555110223</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -2251,18 +2200,17 @@
         <v>500</v>
       </c>
       <c r="F59">
-        <v>51.639517034068135</v>
-      </c>
-      <c r="G59" s="1">
-        <f t="shared" si="0"/>
-        <v>51</v>
+        <v>51.358835671342689</v>
+      </c>
+      <c r="G59" s="2">
+        <v>51.358835671342689</v>
       </c>
       <c r="H59" s="1">
         <v>48</v>
       </c>
-      <c r="I59" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I59" s="2">
+        <f t="shared" si="0"/>
+        <v>3.358835671342689</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -2282,18 +2230,17 @@
         <v>500</v>
       </c>
       <c r="F60">
-        <v>48.748498997995995</v>
-      </c>
-      <c r="G60" s="1">
-        <f t="shared" si="0"/>
-        <v>48</v>
+        <v>48.692362725450899</v>
+      </c>
+      <c r="G60" s="2">
+        <v>48.692362725450899</v>
       </c>
       <c r="H60" s="1">
         <v>48</v>
       </c>
-      <c r="I60" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="I60" s="2">
+        <f t="shared" si="0"/>
+        <v>0.69236272545089861</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -2313,18 +2260,17 @@
         <v>500</v>
       </c>
       <c r="F61">
-        <v>57.758370741482963</v>
-      </c>
-      <c r="G61" s="1">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <v>57.00053106212426</v>
+      </c>
+      <c r="G61" s="2">
+        <v>57.00053106212426</v>
       </c>
       <c r="H61" s="1">
         <v>48</v>
       </c>
-      <c r="I61" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
+      <c r="I61" s="2">
+        <f t="shared" si="0"/>
+        <v>9.00053106212426</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -2344,18 +2290,17 @@
         <v>5</v>
       </c>
       <c r="F62">
-        <v>22.592955911823648</v>
-      </c>
-      <c r="G62" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <v>22.4563006012024</v>
+      </c>
+      <c r="G62" s="2">
+        <v>22.4563006012024</v>
       </c>
       <c r="H62" s="1">
         <v>19</v>
       </c>
-      <c r="I62" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I62" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4563006012024005</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -2375,18 +2320,17 @@
         <v>5</v>
       </c>
       <c r="F63">
-        <v>22.686456913827655</v>
-      </c>
-      <c r="G63" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <v>22.650494989979958</v>
+      </c>
+      <c r="G63" s="2">
+        <v>22.650494989979958</v>
       </c>
       <c r="H63" s="1">
         <v>19</v>
       </c>
-      <c r="I63" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I63" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6504949899799577</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -2406,18 +2350,17 @@
         <v>5</v>
       </c>
       <c r="F64">
-        <v>22.571378757515031</v>
-      </c>
-      <c r="G64" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <v>22.52103206412826</v>
+      </c>
+      <c r="G64" s="2">
+        <v>22.52103206412826</v>
       </c>
       <c r="H64" s="1">
         <v>19</v>
       </c>
-      <c r="I64" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I64" s="2">
+        <f t="shared" si="0"/>
+        <v>3.52103206412826</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -2437,18 +2380,17 @@
         <v>5</v>
       </c>
       <c r="F65">
-        <v>22.269298597194389</v>
-      </c>
-      <c r="G65" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <v>22.204567134268537</v>
+      </c>
+      <c r="G65" s="2">
+        <v>22.204567134268537</v>
       </c>
       <c r="H65" s="1">
         <v>19</v>
       </c>
-      <c r="I65" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I65" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2045671342685367</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -2468,18 +2410,17 @@
         <v>5</v>
       </c>
       <c r="F66">
-        <v>22.269298597194389</v>
-      </c>
-      <c r="G66" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <v>22.132643286573149</v>
+      </c>
+      <c r="G66" s="2">
+        <v>22.132643286573149</v>
       </c>
       <c r="H66" s="1">
         <v>19</v>
       </c>
-      <c r="I66" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I66" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1326432865731491</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -2499,18 +2440,17 @@
         <v>5</v>
       </c>
       <c r="F67">
-        <v>22.197374749498998</v>
-      </c>
-      <c r="G67" s="1">
-        <f t="shared" ref="G67:G121" si="2">FLOOR(F67,1)</f>
-        <v>22</v>
+        <v>22.175797595190382</v>
+      </c>
+      <c r="G67" s="2">
+        <v>22.175797595190382</v>
       </c>
       <c r="H67" s="1">
         <v>19</v>
       </c>
-      <c r="I67" s="1">
-        <f t="shared" ref="I67:I121" si="3">G67-H67</f>
-        <v>3</v>
+      <c r="I67" s="2">
+        <f t="shared" ref="I67:I121" si="1">G67-H67</f>
+        <v>3.1757975951903816</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -2530,18 +2470,17 @@
         <v>5</v>
       </c>
       <c r="F68">
-        <v>21.693907815631263</v>
-      </c>
-      <c r="G68" s="1">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <v>21.571637274549101</v>
+      </c>
+      <c r="G68" s="2">
+        <v>21.571637274549101</v>
       </c>
       <c r="H68" s="1">
         <v>19</v>
       </c>
-      <c r="I68" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+      <c r="I68" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5716372745491007</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -2561,18 +2500,17 @@
         <v>5</v>
       </c>
       <c r="F69">
-        <v>22.060719438877754</v>
-      </c>
-      <c r="G69" s="1">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <v>21.931256513026057</v>
+      </c>
+      <c r="G69" s="2">
+        <v>21.931256513026057</v>
       </c>
       <c r="H69" s="1">
         <v>19</v>
       </c>
-      <c r="I69" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
+      <c r="I69" s="2">
+        <f t="shared" si="1"/>
+        <v>2.9312565130260566</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -2592,18 +2530,17 @@
         <v>5</v>
       </c>
       <c r="F70">
-        <v>25.62814228456914</v>
-      </c>
-      <c r="G70" s="1">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <v>25.541833667334664</v>
+      </c>
+      <c r="G70" s="2">
+        <v>25.541833667334664</v>
       </c>
       <c r="H70" s="1">
         <v>19</v>
       </c>
-      <c r="I70" s="1">
-        <f t="shared" si="3"/>
-        <v>6</v>
+      <c r="I70" s="2">
+        <f t="shared" si="1"/>
+        <v>6.5418336673346644</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -2623,18 +2560,17 @@
         <v>5</v>
       </c>
       <c r="F71">
-        <v>22.571378757515031</v>
-      </c>
-      <c r="G71" s="1">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <v>22.3627995991984</v>
+      </c>
+      <c r="G71" s="2">
+        <v>22.3627995991984</v>
       </c>
       <c r="H71" s="1">
         <v>19</v>
       </c>
-      <c r="I71" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
+      <c r="I71" s="2">
+        <f t="shared" si="1"/>
+        <v>3.3627995991984001</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
@@ -2654,18 +2590,17 @@
         <v>5</v>
       </c>
       <c r="F72">
-        <v>22.751188376753507</v>
-      </c>
-      <c r="G72" s="1">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <v>22.57857114228457</v>
+      </c>
+      <c r="G72" s="2">
+        <v>22.57857114228457</v>
       </c>
       <c r="H72" s="1">
         <v>19</v>
       </c>
-      <c r="I72" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
+      <c r="I72" s="2">
+        <f t="shared" si="1"/>
+        <v>3.5785711422845701</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -2685,18 +2620,17 @@
         <v>5</v>
       </c>
       <c r="F73">
-        <v>22.190182364729459</v>
-      </c>
-      <c r="G73" s="1">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <v>22.039142284569142</v>
+      </c>
+      <c r="G73" s="2">
+        <v>22.039142284569142</v>
       </c>
       <c r="H73" s="1">
         <v>19</v>
       </c>
-      <c r="I73" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
+      <c r="I73" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0391422845691416</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -2716,18 +2650,17 @@
         <v>5</v>
       </c>
       <c r="F74">
-        <v>22.190182364729459</v>
-      </c>
-      <c r="G74" s="1">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <v>22.060719438877761</v>
+      </c>
+      <c r="G74" s="2">
+        <v>22.060719438877761</v>
       </c>
       <c r="H74" s="1">
         <v>19</v>
       </c>
-      <c r="I74" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
+      <c r="I74" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0607194388777614</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -2747,18 +2680,17 @@
         <v>5</v>
       </c>
       <c r="F75">
-        <v>23.305002004008017</v>
-      </c>
-      <c r="G75" s="1">
-        <f t="shared" si="2"/>
-        <v>23</v>
+        <v>23.132384769539076</v>
+      </c>
+      <c r="G75" s="2">
+        <v>23.132384769539076</v>
       </c>
       <c r="H75" s="1">
         <v>19</v>
       </c>
-      <c r="I75" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
+      <c r="I75" s="2">
+        <f t="shared" si="1"/>
+        <v>4.1323847695390761</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
@@ -2778,18 +2710,17 @@
         <v>5</v>
       </c>
       <c r="F76">
-        <v>21.600406813627252</v>
-      </c>
-      <c r="G76" s="1">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <v>21.470943887775555</v>
+      </c>
+      <c r="G76" s="2">
+        <v>21.470943887775555</v>
       </c>
       <c r="H76" s="1">
         <v>19</v>
       </c>
-      <c r="I76" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+      <c r="I76" s="2">
+        <f t="shared" si="1"/>
+        <v>2.4709438877755545</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -2811,16 +2742,15 @@
       <c r="F77">
         <v>26.707000000000001</v>
       </c>
-      <c r="G77" s="1">
-        <f t="shared" si="2"/>
-        <v>26</v>
+      <c r="G77" s="2">
+        <v>26.707000000000001</v>
       </c>
       <c r="H77" s="1">
         <v>19</v>
       </c>
-      <c r="I77" s="1">
-        <f t="shared" si="3"/>
-        <v>7</v>
+      <c r="I77" s="2">
+        <f t="shared" si="1"/>
+        <v>7.7070000000000007</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -2842,16 +2772,15 @@
       <c r="F78">
         <v>26.707000000000001</v>
       </c>
-      <c r="G78" s="1">
-        <f t="shared" si="2"/>
-        <v>26</v>
+      <c r="G78" s="2">
+        <v>26.707000000000001</v>
       </c>
       <c r="H78" s="1">
         <v>19</v>
       </c>
-      <c r="I78" s="1">
-        <f t="shared" si="3"/>
-        <v>7</v>
+      <c r="I78" s="2">
+        <f t="shared" si="1"/>
+        <v>7.7070000000000007</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -2871,18 +2800,17 @@
         <v>5</v>
       </c>
       <c r="F79">
-        <v>25.33325450901804</v>
-      </c>
-      <c r="G79" s="1">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <v>24.966442885771546</v>
+      </c>
+      <c r="G79" s="2">
+        <v>24.966442885771546</v>
       </c>
       <c r="H79" s="1">
         <v>19</v>
       </c>
-      <c r="I79" s="1">
-        <f t="shared" si="3"/>
-        <v>6</v>
+      <c r="I79" s="2">
+        <f t="shared" si="1"/>
+        <v>5.9664428857715457</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -2902,18 +2830,17 @@
         <v>5</v>
       </c>
       <c r="F80">
-        <v>22.672072144288578</v>
-      </c>
-      <c r="G80" s="1">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <v>22.592955911823651</v>
+      </c>
+      <c r="G80" s="2">
+        <v>22.592955911823651</v>
       </c>
       <c r="H80" s="1">
         <v>19</v>
       </c>
-      <c r="I80" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
+      <c r="I80" s="2">
+        <f t="shared" si="1"/>
+        <v>3.5929559118236511</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
@@ -2933,18 +2860,17 @@
         <v>5</v>
       </c>
       <c r="F81">
-        <v>26.707000000000001</v>
-      </c>
-      <c r="G81" s="1">
-        <f t="shared" si="2"/>
-        <v>26</v>
+        <v>26.534382765531067</v>
+      </c>
+      <c r="G81" s="2">
+        <v>26.534382765531067</v>
       </c>
       <c r="H81" s="1">
         <v>19</v>
       </c>
-      <c r="I81" s="1">
-        <f t="shared" si="3"/>
-        <v>7</v>
+      <c r="I81" s="2">
+        <f t="shared" si="1"/>
+        <v>7.5343827655310669</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
@@ -2964,18 +2890,17 @@
         <v>50</v>
       </c>
       <c r="F82">
-        <v>49.742509018036074</v>
-      </c>
-      <c r="G82" s="1">
-        <f t="shared" si="2"/>
-        <v>49</v>
+        <v>49.570202404809628</v>
+      </c>
+      <c r="G82" s="2">
+        <v>49.570202404809628</v>
       </c>
       <c r="H82" s="1">
         <v>45</v>
       </c>
-      <c r="I82" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
+      <c r="I82" s="2">
+        <f t="shared" si="1"/>
+        <v>4.5702024048096277</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
@@ -2995,18 +2920,17 @@
         <v>50</v>
       </c>
       <c r="F83">
-        <v>49.422511022044091</v>
-      </c>
-      <c r="G83" s="1">
-        <f t="shared" si="2"/>
-        <v>49</v>
+        <v>49.200973947895797</v>
+      </c>
+      <c r="G83" s="2">
+        <v>49.200973947895797</v>
       </c>
       <c r="H83" s="1">
         <v>45</v>
       </c>
-      <c r="I83" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
+      <c r="I83" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2009739478957968</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
@@ -3026,18 +2950,17 @@
         <v>50</v>
       </c>
       <c r="F84">
-        <v>50.087122244488981</v>
-      </c>
-      <c r="G84" s="1">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <v>49.816354709418832</v>
+      </c>
+      <c r="G84" s="2">
+        <v>49.816354709418832</v>
       </c>
       <c r="H84" s="1">
         <v>45</v>
       </c>
-      <c r="I84" s="1">
-        <f t="shared" si="3"/>
-        <v>5</v>
+      <c r="I84" s="2">
+        <f t="shared" si="1"/>
+        <v>4.8163547094188317</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
@@ -3057,18 +2980,17 @@
         <v>50</v>
       </c>
       <c r="F85">
-        <v>45.927148296593181</v>
-      </c>
-      <c r="G85" s="1">
-        <f t="shared" si="2"/>
-        <v>45</v>
+        <v>45.877917835671333</v>
+      </c>
+      <c r="G85" s="2">
+        <v>45.877917835671333</v>
       </c>
       <c r="H85" s="1">
         <v>45</v>
       </c>
-      <c r="I85" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="I85" s="2">
+        <f t="shared" si="1"/>
+        <v>0.87791783567133308</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -3088,18 +3010,17 @@
         <v>50</v>
       </c>
       <c r="F86">
-        <v>49.988661322645285</v>
-      </c>
-      <c r="G86" s="1">
-        <f t="shared" si="2"/>
-        <v>49</v>
+        <v>49.717893787575143</v>
+      </c>
+      <c r="G86" s="2">
+        <v>49.717893787575143</v>
       </c>
       <c r="H86" s="1">
         <v>45</v>
       </c>
-      <c r="I86" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
+      <c r="I86" s="2">
+        <f t="shared" si="1"/>
+        <v>4.717893787575143</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
@@ -3119,18 +3040,17 @@
         <v>50</v>
       </c>
       <c r="F87">
-        <v>47.724060120240487</v>
-      </c>
-      <c r="G87" s="1">
-        <f t="shared" si="2"/>
-        <v>47</v>
+        <v>47.527138276553103</v>
+      </c>
+      <c r="G87" s="2">
+        <v>47.527138276553103</v>
       </c>
       <c r="H87" s="1">
         <v>45</v>
       </c>
-      <c r="I87" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+      <c r="I87" s="2">
+        <f t="shared" si="1"/>
+        <v>2.527138276553103</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
@@ -3150,18 +3070,17 @@
         <v>50</v>
       </c>
       <c r="F88">
-        <v>46.665605210420836</v>
-      </c>
-      <c r="G88" s="1">
-        <f t="shared" si="2"/>
-        <v>46</v>
+        <v>46.567144288577147</v>
+      </c>
+      <c r="G88" s="2">
+        <v>46.567144288577147</v>
       </c>
       <c r="H88" s="1">
         <v>45</v>
       </c>
-      <c r="I88" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="I88" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5671442885771469</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
@@ -3181,18 +3100,17 @@
         <v>50</v>
       </c>
       <c r="F89">
-        <v>49.939430861723437</v>
-      </c>
-      <c r="G89" s="1">
-        <f t="shared" si="2"/>
-        <v>49</v>
+        <v>49.644048096192378</v>
+      </c>
+      <c r="G89" s="2">
+        <v>49.644048096192378</v>
       </c>
       <c r="H89" s="1">
         <v>45</v>
       </c>
-      <c r="I89" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
+      <c r="I89" s="2">
+        <f t="shared" si="1"/>
+        <v>4.6440480961923782</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
@@ -3212,18 +3130,17 @@
         <v>50</v>
       </c>
       <c r="F90">
-        <v>59.637831663326651</v>
-      </c>
-      <c r="G90" s="1">
-        <f t="shared" si="2"/>
-        <v>59</v>
+        <v>59.490140280561128</v>
+      </c>
+      <c r="G90" s="2">
+        <v>59.490140280561128</v>
       </c>
       <c r="H90" s="1">
         <v>45</v>
       </c>
-      <c r="I90" s="1">
-        <f t="shared" si="3"/>
-        <v>14</v>
+      <c r="I90" s="2">
+        <f t="shared" si="1"/>
+        <v>14.490140280561128</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
@@ -3243,18 +3160,17 @@
         <v>50</v>
       </c>
       <c r="F91">
-        <v>48.585593186372741</v>
-      </c>
-      <c r="G91" s="1">
-        <f t="shared" si="2"/>
-        <v>48</v>
+        <v>48.290210420841682</v>
+      </c>
+      <c r="G91" s="2">
+        <v>48.290210420841682</v>
       </c>
       <c r="H91" s="1">
         <v>45</v>
       </c>
-      <c r="I91" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
+      <c r="I91" s="2">
+        <f t="shared" si="1"/>
+        <v>3.2902104208416816</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
@@ -3274,18 +3190,17 @@
         <v>50</v>
       </c>
       <c r="F92">
-        <v>53.951713426853715</v>
-      </c>
-      <c r="G92" s="1">
-        <f t="shared" si="2"/>
-        <v>53</v>
+        <v>53.385563126252499</v>
+      </c>
+      <c r="G92" s="2">
+        <v>53.385563126252499</v>
       </c>
       <c r="H92" s="1">
         <v>45</v>
       </c>
-      <c r="I92" s="1">
-        <f t="shared" si="3"/>
-        <v>8</v>
+      <c r="I92" s="2">
+        <f t="shared" si="1"/>
+        <v>8.3855631262524994</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
@@ -3305,18 +3220,17 @@
         <v>50</v>
       </c>
       <c r="F93">
-        <v>48.142519038076159</v>
-      </c>
-      <c r="G93" s="1">
-        <f t="shared" si="2"/>
-        <v>48</v>
+        <v>47.970212424849699</v>
+      </c>
+      <c r="G93" s="2">
+        <v>47.970212424849699</v>
       </c>
       <c r="H93" s="1">
         <v>45</v>
       </c>
-      <c r="I93" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
+      <c r="I93" s="2">
+        <f t="shared" si="1"/>
+        <v>2.9702124248496986</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
@@ -3336,18 +3250,17 @@
         <v>50</v>
       </c>
       <c r="F94">
-        <v>50.357889779559116</v>
-      </c>
-      <c r="G94" s="1">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <v>50.308659318637275</v>
+      </c>
+      <c r="G94" s="2">
+        <v>50.308659318637275</v>
       </c>
       <c r="H94" s="1">
         <v>45</v>
       </c>
-      <c r="I94" s="1">
-        <f t="shared" si="3"/>
-        <v>5</v>
+      <c r="I94" s="2">
+        <f t="shared" si="1"/>
+        <v>5.3086593186372752</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
@@ -3367,18 +3280,17 @@
         <v>50</v>
       </c>
       <c r="F95">
-        <v>52.647106212424845</v>
-      </c>
-      <c r="G95" s="1">
-        <f t="shared" si="2"/>
-        <v>52</v>
+        <v>52.130186372745484</v>
+      </c>
+      <c r="G95" s="2">
+        <v>52.130186372745484</v>
       </c>
       <c r="H95" s="1">
         <v>45</v>
       </c>
-      <c r="I95" s="1">
-        <f t="shared" si="3"/>
-        <v>7</v>
+      <c r="I95" s="2">
+        <f t="shared" si="1"/>
+        <v>7.1301863727454844</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
@@ -3398,18 +3310,17 @@
         <v>50</v>
       </c>
       <c r="F96">
-        <v>46.88714228456913</v>
-      </c>
-      <c r="G96" s="1">
-        <f t="shared" si="2"/>
-        <v>46</v>
+        <v>46.764066132264531</v>
+      </c>
+      <c r="G96" s="2">
+        <v>46.764066132264531</v>
       </c>
       <c r="H96" s="1">
         <v>45</v>
       </c>
-      <c r="I96" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="I96" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7640661322645315</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
@@ -3429,18 +3340,17 @@
         <v>50</v>
       </c>
       <c r="F97">
-        <v>56.216314629258513</v>
-      </c>
-      <c r="G97" s="1">
-        <f t="shared" si="2"/>
-        <v>56</v>
+        <v>55.527088176352713</v>
+      </c>
+      <c r="G97" s="2">
+        <v>55.527088176352713</v>
       </c>
       <c r="H97" s="1">
         <v>45</v>
       </c>
-      <c r="I97" s="1">
-        <f t="shared" si="3"/>
-        <v>11</v>
+      <c r="I97" s="2">
+        <f t="shared" si="1"/>
+        <v>10.527088176352713</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
@@ -3460,18 +3370,17 @@
         <v>50</v>
       </c>
       <c r="F98">
-        <v>53.065565130260516</v>
-      </c>
-      <c r="G98" s="1">
-        <f t="shared" si="2"/>
-        <v>53</v>
+        <v>52.499414829659329</v>
+      </c>
+      <c r="G98" s="2">
+        <v>52.499414829659329</v>
       </c>
       <c r="H98" s="1">
         <v>45</v>
       </c>
-      <c r="I98" s="1">
-        <f t="shared" si="3"/>
-        <v>8</v>
+      <c r="I98" s="2">
+        <f t="shared" si="1"/>
+        <v>7.4994148296593295</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
@@ -3491,18 +3400,17 @@
         <v>50</v>
       </c>
       <c r="F99">
-        <v>54.690170340681355</v>
-      </c>
-      <c r="G99" s="1">
-        <f t="shared" si="2"/>
-        <v>54</v>
+        <v>54.050174348697389</v>
+      </c>
+      <c r="G99" s="2">
+        <v>54.050174348697389</v>
       </c>
       <c r="H99" s="1">
         <v>45</v>
       </c>
-      <c r="I99" s="1">
-        <f t="shared" si="3"/>
-        <v>9</v>
+      <c r="I99" s="2">
+        <f t="shared" si="1"/>
+        <v>9.0501743486973893</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
@@ -3522,18 +3430,17 @@
         <v>50</v>
       </c>
       <c r="F100">
-        <v>51.342498997995989</v>
-      </c>
-      <c r="G100" s="1">
-        <f t="shared" si="2"/>
-        <v>51</v>
+        <v>50.973270541082165</v>
+      </c>
+      <c r="G100" s="2">
+        <v>50.973270541082165</v>
       </c>
       <c r="H100" s="1">
         <v>45</v>
       </c>
-      <c r="I100" s="1">
-        <f t="shared" si="3"/>
-        <v>6</v>
+      <c r="I100" s="2">
+        <f t="shared" si="1"/>
+        <v>5.9732705410821652</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
@@ -3555,16 +3462,15 @@
       <c r="F101">
         <v>69.606999999999999</v>
       </c>
-      <c r="G101" s="1">
-        <f t="shared" si="2"/>
-        <v>69</v>
+      <c r="G101" s="2">
+        <v>69.606999999999999</v>
       </c>
       <c r="H101" s="1">
         <v>45</v>
       </c>
-      <c r="I101" s="1">
-        <f t="shared" si="3"/>
-        <v>24</v>
+      <c r="I101" s="2">
+        <f t="shared" si="1"/>
+        <v>24.606999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
@@ -3584,18 +3490,17 @@
         <v>500</v>
       </c>
       <c r="F102">
-        <v>54.650919839679354</v>
-      </c>
-      <c r="G102" s="1">
-        <f t="shared" si="2"/>
-        <v>54</v>
+        <v>54.492971943887781</v>
+      </c>
+      <c r="G102" s="2">
+        <v>54.492971943887781</v>
       </c>
       <c r="H102" s="1">
         <v>52</v>
       </c>
-      <c r="I102" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+      <c r="I102" s="2">
+        <f t="shared" si="1"/>
+        <v>2.4929719438877811</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
@@ -3615,18 +3520,17 @@
         <v>500</v>
       </c>
       <c r="F103">
-        <v>53.071440881763529</v>
-      </c>
-      <c r="G103" s="1">
-        <f t="shared" si="2"/>
-        <v>53</v>
+        <v>53.018791583166326</v>
+      </c>
+      <c r="G103" s="2">
+        <v>53.018791583166326</v>
       </c>
       <c r="H103" s="1">
         <v>52</v>
       </c>
-      <c r="I103" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="I103" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0187915831663261</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
@@ -3646,18 +3550,17 @@
         <v>500</v>
       </c>
       <c r="F104">
-        <v>53.255713426853703</v>
-      </c>
-      <c r="G104" s="1">
-        <f t="shared" si="2"/>
-        <v>53</v>
+        <v>53.229388777555108</v>
+      </c>
+      <c r="G104" s="2">
+        <v>53.229388777555108</v>
       </c>
       <c r="H104" s="1">
         <v>52</v>
       </c>
-      <c r="I104" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="I104" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2293887775551084</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
@@ -3677,18 +3580,17 @@
         <v>500</v>
       </c>
       <c r="F105">
-        <v>53.492635270541086</v>
-      </c>
-      <c r="G105" s="1">
-        <f t="shared" si="2"/>
-        <v>53</v>
+        <v>53.413661322645289</v>
+      </c>
+      <c r="G105" s="2">
+        <v>53.413661322645289</v>
       </c>
       <c r="H105" s="1">
         <v>52</v>
       </c>
-      <c r="I105" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="I105" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4136613226452894</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
@@ -3708,18 +3610,17 @@
         <v>500</v>
       </c>
       <c r="F106">
-        <v>53.282038076152304</v>
-      </c>
-      <c r="G106" s="1">
-        <f t="shared" si="2"/>
-        <v>53</v>
+        <v>53.203064128256514</v>
+      </c>
+      <c r="G106" s="2">
+        <v>53.203064128256514</v>
       </c>
       <c r="H106" s="1">
         <v>52</v>
       </c>
-      <c r="I106" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="I106" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2030641282565142</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
@@ -3739,18 +3640,17 @@
         <v>500</v>
       </c>
       <c r="F107">
-        <v>52.702895791583167</v>
-      </c>
-      <c r="G107" s="1">
-        <f t="shared" si="2"/>
-        <v>52</v>
+        <v>52.676571142284573</v>
+      </c>
+      <c r="G107" s="2">
+        <v>52.676571142284573</v>
       </c>
       <c r="H107" s="1">
         <v>52</v>
       </c>
-      <c r="I107" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="I107" s="2">
+        <f t="shared" si="1"/>
+        <v>0.6765711422845726</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
@@ -3770,18 +3670,17 @@
         <v>500</v>
       </c>
       <c r="F108">
-        <v>53.361012024048094</v>
-      </c>
-      <c r="G108" s="1">
-        <f t="shared" si="2"/>
-        <v>53</v>
+        <v>53.308362725450905</v>
+      </c>
+      <c r="G108" s="2">
+        <v>53.308362725450905</v>
       </c>
       <c r="H108" s="1">
         <v>52</v>
       </c>
-      <c r="I108" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="I108" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3083627254509054</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
@@ -3801,18 +3700,17 @@
         <v>500</v>
       </c>
       <c r="F109">
-        <v>53.071440881763529</v>
-      </c>
-      <c r="G109" s="1">
-        <f t="shared" si="2"/>
-        <v>53</v>
+        <v>53.045116232464935</v>
+      </c>
+      <c r="G109" s="2">
+        <v>53.045116232464935</v>
       </c>
       <c r="H109" s="1">
         <v>52</v>
       </c>
-      <c r="I109" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="I109" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0451162324649346</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
@@ -3832,18 +3730,17 @@
         <v>500</v>
       </c>
       <c r="F110">
-        <v>53.097765531062123</v>
-      </c>
-      <c r="G110" s="1">
-        <f t="shared" si="2"/>
-        <v>53</v>
+        <v>53.071440881763529</v>
+      </c>
+      <c r="G110" s="2">
+        <v>53.071440881763529</v>
       </c>
       <c r="H110" s="1">
         <v>52</v>
       </c>
-      <c r="I110" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="I110" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0714408817635288</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
@@ -3863,18 +3760,17 @@
         <v>500</v>
       </c>
       <c r="F111">
-        <v>57.388683366733467</v>
-      </c>
-      <c r="G111" s="1">
-        <f t="shared" si="2"/>
-        <v>57</v>
+        <v>57.046462925851714</v>
+      </c>
+      <c r="G111" s="2">
+        <v>57.046462925851714</v>
       </c>
       <c r="H111" s="1">
         <v>52</v>
       </c>
-      <c r="I111" s="1">
-        <f t="shared" si="3"/>
-        <v>5</v>
+      <c r="I111" s="2">
+        <f t="shared" si="1"/>
+        <v>5.0464629258517135</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
@@ -3894,18 +3790,17 @@
         <v>500</v>
       </c>
       <c r="F112">
-        <v>55.151088176352708</v>
-      </c>
-      <c r="G112" s="1">
-        <f t="shared" si="2"/>
-        <v>55</v>
+        <v>54.94049098196394</v>
+      </c>
+      <c r="G112" s="2">
+        <v>54.94049098196394</v>
       </c>
       <c r="H112" s="1">
         <v>52</v>
       </c>
-      <c r="I112" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
+      <c r="I112" s="2">
+        <f t="shared" si="1"/>
+        <v>2.94049098196394</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
@@ -3925,18 +3820,17 @@
         <v>500</v>
       </c>
       <c r="F113">
-        <v>56.177749498998004</v>
-      </c>
-      <c r="G113" s="1">
-        <f t="shared" si="2"/>
-        <v>56</v>
+        <v>55.967152304609208</v>
+      </c>
+      <c r="G113" s="2">
+        <v>55.967152304609208</v>
       </c>
       <c r="H113" s="1">
         <v>52</v>
       </c>
-      <c r="I113" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
+      <c r="I113" s="2">
+        <f t="shared" si="1"/>
+        <v>3.9671523046092076</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
@@ -3956,18 +3850,17 @@
         <v>500</v>
       </c>
       <c r="F114">
-        <v>53.992803607214427</v>
-      </c>
-      <c r="G114" s="1">
-        <f t="shared" si="2"/>
-        <v>53</v>
+        <v>53.913829659318637</v>
+      </c>
+      <c r="G114" s="2">
+        <v>53.913829659318637</v>
       </c>
       <c r="H114" s="1">
         <v>52</v>
       </c>
-      <c r="I114" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="I114" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9138296593186368</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
@@ -3987,18 +3880,17 @@
         <v>500</v>
       </c>
       <c r="F115">
-        <v>53.782206412825651</v>
-      </c>
-      <c r="G115" s="1">
-        <f t="shared" si="2"/>
-        <v>53</v>
+        <v>53.67690781563126</v>
+      </c>
+      <c r="G115" s="2">
+        <v>53.67690781563126</v>
       </c>
       <c r="H115" s="1">
         <v>52</v>
       </c>
-      <c r="I115" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="I115" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6769078156312602</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
@@ -4018,18 +3910,17 @@
         <v>500</v>
       </c>
       <c r="F116">
-        <v>53.729557114228456</v>
-      </c>
-      <c r="G116" s="1">
-        <f t="shared" si="2"/>
-        <v>53</v>
+        <v>53.650583166332673</v>
+      </c>
+      <c r="G116" s="2">
+        <v>53.650583166332673</v>
       </c>
       <c r="H116" s="1">
         <v>52</v>
       </c>
-      <c r="I116" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="I116" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6505831663326731</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
@@ -4049,18 +3940,17 @@
         <v>500</v>
       </c>
       <c r="F117">
-        <v>53.571609218436876</v>
-      </c>
-      <c r="G117" s="1">
-        <f t="shared" si="2"/>
-        <v>53</v>
+        <v>53.492635270541086</v>
+      </c>
+      <c r="G117" s="2">
+        <v>53.492635270541086</v>
       </c>
       <c r="H117" s="1">
         <v>52</v>
       </c>
-      <c r="I117" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="I117" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4926352705410864</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
@@ -4080,18 +3970,17 @@
         <v>500</v>
       </c>
       <c r="F118">
-        <v>57.151761523046105</v>
-      </c>
-      <c r="G118" s="1">
-        <f t="shared" si="2"/>
-        <v>57</v>
+        <v>56.783216432865714</v>
+      </c>
+      <c r="G118" s="2">
+        <v>56.783216432865714</v>
       </c>
       <c r="H118" s="1">
         <v>52</v>
       </c>
-      <c r="I118" s="1">
-        <f t="shared" si="3"/>
-        <v>5</v>
+      <c r="I118" s="2">
+        <f t="shared" si="1"/>
+        <v>4.7832164328657143</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
@@ -4111,18 +4000,17 @@
         <v>500</v>
       </c>
       <c r="F119">
-        <v>56.046126252505019</v>
-      </c>
-      <c r="G119" s="1">
-        <f t="shared" si="2"/>
-        <v>56</v>
+        <v>55.782879759519048</v>
+      </c>
+      <c r="G119" s="2">
+        <v>55.782879759519048</v>
       </c>
       <c r="H119" s="1">
         <v>52</v>
       </c>
-      <c r="I119" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
+      <c r="I119" s="2">
+        <f t="shared" si="1"/>
+        <v>3.782879759519048</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
@@ -4142,18 +4030,17 @@
         <v>500</v>
       </c>
       <c r="F120">
-        <v>54.861517034068143</v>
-      </c>
-      <c r="G120" s="1">
-        <f t="shared" si="2"/>
-        <v>54</v>
+        <v>54.677244488977955</v>
+      </c>
+      <c r="G120" s="2">
+        <v>54.677244488977955</v>
       </c>
       <c r="H120" s="1">
         <v>52</v>
       </c>
-      <c r="I120" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+      <c r="I120" s="2">
+        <f t="shared" si="1"/>
+        <v>2.677244488977955</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
@@ -4173,18 +4060,17 @@
         <v>500</v>
       </c>
       <c r="F121">
-        <v>71.483410110543659</v>
-      </c>
-      <c r="G121" s="1">
-        <f t="shared" si="2"/>
-        <v>71</v>
+        <v>66.942776085504349</v>
+      </c>
+      <c r="G121" s="2">
+        <v>66.942776085504349</v>
       </c>
       <c r="H121" s="1">
         <v>52</v>
       </c>
-      <c r="I121" s="1">
-        <f t="shared" si="3"/>
-        <v>19</v>
+      <c r="I121" s="2">
+        <f t="shared" si="1"/>
+        <v>14.942776085504349</v>
       </c>
     </row>
   </sheetData>
